--- a/data/Rohmilch.xlsx
+++ b/data/Rohmilch.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Gesamthandel Total 2" r:id="rId3" sheetId="1"/>
-    <sheet name="0401.3010" r:id="rId4" sheetId="2"/>
-    <sheet name="0401.5010" r:id="rId5" sheetId="3"/>
+    <sheet name="0401.2010" r:id="rId4" sheetId="2"/>
+    <sheet name="0401.2090" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="292">
   <si>
     <r>
       <t xml:space="preserve">Periode </t>
@@ -1068,7 +1068,7 @@
     </r>
   </si>
   <si>
-    <t>Abfragedatum/-zeit: 15.03.2024 08:39:08</t>
+    <t>Abfragedatum/-zeit: 15.03.2024 08:53:10</t>
   </si>
   <si>
     <t>© 1988 - 2024 Bundesamt für Zoll und Grenzsicherheit BAZG</t>
@@ -1087,19 +1087,19 @@
     </r>
   </si>
   <si>
+    <t>0401.2010 - Milch und Rahm, weder eingedickt noch mit Zusatz von Zucker oder anderen Süssmitteln, mit einem Milchfettgehalt von &gt; 1 bis 6 %, innerhalb des Zollkontingents Nr. 7 eingeführt</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>**</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>0401.3010 - Milch, weder eingedickt noch mit Zusatz von Zucker oder anderen Süssmitteln, mit einem Milchfettgehalt von &gt; 6 %</t>
-  </si>
-  <si>
-    <t>0401.5010 - Milch, weder eingedickt noch mit Zusatz von Zucker oder anderen Süssstoffen, mit einem Fettgehalt von mehr als 10 % Gewichtsprozent</t>
+    <t>0401.2090 - Milch und Rahm, weder eingedickt noch mit Zusatz von Zucker oder anderen Süssmitteln, mit einem Milchfettgehalt von &gt; 1 bis 6 %, ausserhalb des Zollkontingents</t>
   </si>
 </sst>
 </file>
@@ -5241,7 +5241,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.16015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="21.03515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.9921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.2578125" customWidth="true" bestFit="true"/>
@@ -5249,7 +5249,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" ht="96.0" customHeight="true">
@@ -5279,1449 +5279,3889 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>15.0</v>
+        <v>1661492.0</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>1820.0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>288</v>
+        <v>1296642.0</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-15.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>2.0</v>
+        <v>1647620.0</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15.0</v>
+        <v>1285753.0</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-90.4</v>
+        <v>-34.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9" s="5" t="n">
-        <v>-100.0</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>1551490.0</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1213765.0</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>-26.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10" s="5" t="n">
-        <v>-100.0</v>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>1659330.0</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>1295072.0</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>10.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>6.0</v>
+        <v>2230043.0</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>288</v>
+        <v>1740218.0</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>21.0</v>
+        <v>2405120.0</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>293.0</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>288</v>
+        <v>1878270.0</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>28.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>57.0</v>
+        <v>2218520.0</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>-94.0</v>
+        <v>1731935.0</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>411.0</v>
+        <v>1943965.0</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3200.0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>288</v>
+        <v>1521199.0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>10.0</v>
+        <v>1714787.0</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>288</v>
+        <v>1338356.0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-7.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="5" t="n">
-        <v>-100.0</v>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>1968914.0</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>1539188.0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>20.0</v>
+        <v>2140293.0</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>200.0</v>
+        <v>1669797.0</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>334.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>5.0</v>
+        <v>1753918.0</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>146.0</v>
+        <v>1368055.0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>-50.2</v>
+        <v>-19.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>276.0</v>
+        <v>2297521.0</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>3396.0</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>289</v>
+        <v>1796833.0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>38.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>3.0</v>
+        <v>2124075.0</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>288</v>
+        <v>1657660.0</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>28.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" s="5" t="n">
-        <v>-100.0</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>2362547.0</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>1843487.0</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="n">
-        <v>5.0</v>
+        <v>2475775.0</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>873.0</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>289</v>
+        <v>1934276.0</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>49.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>10.0</v>
+        <v>2321959.0</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>19.0</v>
+        <v>1812038.0</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-90.5</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24" s="5" t="n">
-        <v>-100.0</v>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>2400024.0</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1874968.0</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25" s="5" t="n">
-        <v>-100.0</v>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="n">
+        <v>1785803.0</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>1396260.0</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-19.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26" s="5" t="n">
-        <v>-100.0</v>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="n">
+        <v>1509926.0</v>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>1178886.0</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-22.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>19.0</v>
+        <v>1177291.0</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>56.0</v>
+        <v>918234.0</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-93.6</v>
+        <v>-31.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>11.0</v>
+        <v>1351055.0</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>288</v>
+        <v>1055950.0</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>-31.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="n">
-        <v>19.0</v>
+        <v>1478759.0</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>56.0</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>288</v>
+        <v>1156099.0</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>-30.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>20.0</v>
+        <v>1550366.0</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>62.0</v>
+        <v>1209818.0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>226.3</v>
+        <v>-11.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>18.0</v>
+        <v>1879324.0</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>288</v>
+        <v>1391152.0</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-22.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>19.0</v>
+        <v>1074507.0</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>-3.6</v>
+        <v>795525.0</v>
+      </c>
+      <c r="D32" s="5" t="n">
+        <v>-52.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>19.0</v>
+        <v>1628819.0</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>122.0</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>288</v>
+        <v>1204512.0</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>-34.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34" s="5" t="n">
-        <v>-100.0</v>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <v>1072090.0</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>794165.0</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>-58.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>5.0</v>
+        <v>1278282.0</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>288</v>
+        <v>947054.0</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>-47.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36" s="5" t="n">
-        <v>-100.0</v>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="n">
+        <v>2270388.0</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1681684.0</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>-10.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>12.0</v>
+        <v>1892082.0</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>288</v>
+        <v>1400141.0</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>19.0</v>
+        <v>1869748.0</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>54.0</v>
+        <v>1385437.0</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-12.9</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>20.0</v>
+        <v>1962613.0</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>288</v>
+        <v>1452831.0</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>58.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>2.0</v>
+        <v>2258280.0</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>288</v>
+        <v>1673739.0</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>58.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5" t="n">
-        <v>19.0</v>
+        <v>2378710.0</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>-10.0</v>
+        <v>1761909.0</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>52.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>47.0</v>
+        <v>2732538.0</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>339.0</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>288</v>
+        <v>2022829.0</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>67.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43" s="5" t="n">
-        <v>-100.0</v>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="n">
+        <v>2000212.0</v>
+      </c>
+      <c r="C43" s="5" t="n">
+        <v>1481127.0</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44" s="5" t="n">
-        <v>-100.0</v>
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="n">
+        <v>1698965.0</v>
+      </c>
+      <c r="C44" s="5" t="n">
+        <v>1258001.0</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>58.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5" t="n">
-        <v>39.0</v>
+        <v>1694216.0</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>115.0</v>
+        <v>1254758.0</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>51.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5" t="n">
-        <v>99.0</v>
+        <v>1456231.0</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>1259.0</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>288</v>
+        <v>1078709.0</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>35.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5" t="n">
-        <v>19.0</v>
+        <v>1910710.0</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>55.0</v>
+        <v>1414716.0</v>
       </c>
       <c r="D47" s="6" t="n">
-        <v>96.4</v>
+        <v>49.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48" s="5" t="n">
-        <v>-100.0</v>
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="n">
+        <v>1637561.0</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>1196306.0</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>-28.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>1725741.0</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>1260683.0</v>
+      </c>
       <c r="D49" s="5" t="n">
-        <v>-100.0</v>
+        <v>-10.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B50" s="5" t="n">
-        <v>19.0</v>
+        <v>1578038.0</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="D50" s="5" t="n">
-        <v>300.0</v>
+        <v>1152267.0</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>-16.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51" s="5" t="n">
-        <v>-100.0</v>
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="n">
+        <v>1993678.0</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>1455802.0</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52" s="5" t="n">
-        <v>-100.0</v>
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="n">
+        <v>2121595.0</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>1549585.0</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>-7.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>160.0</v>
+        <v>2223470.0</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>641.0</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>288</v>
+        <v>1623888.0</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>-7.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>23.0</v>
+        <v>2596863.0</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>929.0</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>288</v>
+        <v>1896467.0</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>-6.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>19.0</v>
+        <v>1726321.0</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>53.0</v>
+        <v>1278354.0</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-53.9</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56" s="5" t="n">
-        <v>-100.0</v>
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="n">
+        <v>2166031.0</v>
+      </c>
+      <c r="C56" s="5" t="n">
+        <v>1603750.0</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>27.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5" t="n">
-        <v>0.0</v>
+        <v>2256126.0</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>288</v>
+        <v>1670339.0</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>33.1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="B58" s="5" t="n">
-        <v>145.0</v>
+        <v>1916451.0</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>2650.0</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>289</v>
+        <v>1419046.0</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>31.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5" t="n">
-        <v>19.0</v>
+        <v>1850161.0</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>288</v>
+        <v>1369974.0</v>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60" s="5" t="n">
-        <v>-100.0</v>
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="n">
+        <v>1570756.0</v>
+      </c>
+      <c r="C60" s="5" t="n">
+        <v>1116445.0</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>-6.7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5" t="n">
-        <v>48.0</v>
+        <v>1925013.0</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>219.0</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>288</v>
+        <v>1368090.0</v>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B62" s="5" t="n">
-        <v>16.0</v>
+        <v>1837243.0</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>288</v>
+        <v>1305174.0</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B63" s="5" t="n">
-        <v>66721.0</v>
+        <v>1620155.0</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>417552.0</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>289</v>
+        <v>1150909.0</v>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>-20.9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B64" s="5" t="n">
-        <v>101251.0</v>
+        <v>1710919.0</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>631664.0</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>288</v>
+        <v>1215149.0</v>
+      </c>
+      <c r="D64" s="6" t="n">
+        <v>-21.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B65" s="5" t="n">
-        <v>107221.0</v>
+        <v>1699349.0</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>700771.0</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>289</v>
+        <v>1207783.0</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>-25.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B66" s="5" t="n">
-        <v>145586.0</v>
+        <v>1763882.0</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>920476.0</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>289</v>
+        <v>1253188.0</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>-33.9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B67" s="5" t="n">
-        <v>134186.0</v>
+        <v>2530042.0</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>829685.0</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>288</v>
+        <v>1847811.0</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>44.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="B68" s="5" t="n">
-        <v>101131.0</v>
+        <v>2310061.0</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>600730.0</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>289</v>
+        <v>1687050.0</v>
+      </c>
+      <c r="D68" s="6" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="B69" s="5" t="n">
-        <v>66586.0</v>
+        <v>1839017.0</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>404702.0</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>289</v>
+        <v>1306655.0</v>
+      </c>
+      <c r="D69" s="6" t="n">
+        <v>-21.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B70" s="5" t="n">
-        <v>111344.0</v>
+        <v>2355511.0</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>660005.0</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>289</v>
+        <v>1129347.0</v>
+      </c>
+      <c r="D70" s="6" t="n">
+        <v>-20.4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B71" s="5" t="n">
-        <v>157174.0</v>
+        <v>2084721.0</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>925074.0</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>288</v>
+        <v>1481674.0</v>
+      </c>
+      <c r="D71" s="6" t="n">
+        <v>8.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B72" s="5" t="n">
-        <v>122540.0</v>
+        <v>1911234.0</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>720922.0</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>288</v>
+        <v>1358756.0</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>21.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>134206.0</v>
+        <v>1980051.0</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>803426.0</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>289</v>
+        <v>1407514.0</v>
+      </c>
+      <c r="D73" s="6" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="B74" s="5" t="n">
-        <v>146110.0</v>
+        <v>1799544.0</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>887773.0</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>289</v>
+        <v>1294280.0</v>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="B75" s="5" t="n">
-        <v>133079.0</v>
+        <v>1690650.0</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>794366.0</v>
+        <v>1200602.0</v>
       </c>
       <c r="D75" s="6" t="n">
-        <v>90.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>211333.0</v>
+        <v>1774624.0</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>1253079.0</v>
+        <v>1261553.0</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>98.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="B77" s="5" t="n">
-        <v>44285.0</v>
+        <v>1669225.0</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>272887.0</v>
+        <v>1186463.0</v>
       </c>
       <c r="D77" s="6" t="n">
-        <v>-61.1</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="B78" s="5" t="n">
-        <v>124529.0</v>
+        <v>1445535.0</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>735712.0</v>
-      </c>
-      <c r="D78" s="6" t="n">
-        <v>-20.1</v>
+        <v>1027214.0</v>
+      </c>
+      <c r="D78" s="5" t="n">
+        <v>-18.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="B79" s="5" t="n">
-        <v>182270.0</v>
+        <v>1901087.0</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>1080267.0</v>
+        <v>1350796.0</v>
       </c>
       <c r="D79" s="6" t="n">
-        <v>30.2</v>
+        <v>-26.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="B80" s="5" t="n">
-        <v>157080.0</v>
+        <v>2094470.0</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>945154.0</v>
+        <v>1487839.0</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>57.3</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="B81" s="5" t="n">
-        <v>146317.0</v>
+        <v>2114965.0</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>866454.0</v>
-      </c>
-      <c r="D81" s="6" t="n">
-        <v>114.1</v>
+        <v>1502440.0</v>
+      </c>
+      <c r="D81" s="5" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="B82" s="5" t="n">
-        <v>67573.0</v>
+        <v>1754351.0</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>381546.0</v>
+        <v>1246695.0</v>
       </c>
       <c r="D82" s="6" t="n">
-        <v>-42.2</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B83" s="5" t="n">
-        <v>135156.0</v>
+        <v>2185168.0</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>622152.0</v>
+        <v>1487205.0</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>-32.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="B84" s="5" t="n">
-        <v>156793.0</v>
+        <v>2156120.0</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>898354.0</v>
-      </c>
-      <c r="D84" s="6" t="n">
-        <v>24.6</v>
+        <v>1467557.0</v>
+      </c>
+      <c r="D84" s="5" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="B85" s="5" t="n">
-        <v>124639.0</v>
+        <v>1971479.0</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>701633.0</v>
+        <v>1341293.0</v>
       </c>
       <c r="D85" s="6" t="n">
-        <v>-12.7</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="B86" s="5" t="n">
-        <v>178757.0</v>
+        <v>1626743.0</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>909741.0</v>
+        <v>1106205.0</v>
       </c>
       <c r="D86" s="6" t="n">
-        <v>2.5</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="B87" s="5" t="n">
-        <v>124222.0</v>
+        <v>1409740.0</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>691514.0</v>
+        <v>959325.0</v>
       </c>
       <c r="D87" s="6" t="n">
-        <v>-12.9</v>
+        <v>-20.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="B88" s="5" t="n">
-        <v>179598.0</v>
+        <v>1554614.0</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>944335.0</v>
+        <v>1058787.0</v>
       </c>
       <c r="D88" s="6" t="n">
-        <v>-24.6</v>
+        <v>-16.1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="B89" s="5" t="n">
-        <v>55155.0</v>
+        <v>1740011.0</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>293796.0</v>
+        <v>1184846.0</v>
       </c>
       <c r="D89" s="6" t="n">
-        <v>7.7</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="B90" s="5" t="n">
-        <v>156687.0</v>
+        <v>2219518.0</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>812771.0</v>
+        <v>1510555.0</v>
       </c>
       <c r="D90" s="6" t="n">
-        <v>10.5</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="B91" s="5" t="n">
-        <v>158402.0</v>
+        <v>2254111.0</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>822460.0</v>
+        <v>1646712.0</v>
       </c>
       <c r="D91" s="6" t="n">
-        <v>-23.9</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="B92" s="5" t="n">
-        <v>147230.0</v>
+        <v>2295103.0</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>784786.0</v>
-      </c>
-      <c r="D92" s="5" t="n">
-        <v>-17.0</v>
+        <v>1676880.0</v>
+      </c>
+      <c r="D92" s="6" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="B93" s="5" t="n">
-        <v>135579.0</v>
+        <v>2080699.0</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>718131.0</v>
+        <v>1520435.0</v>
       </c>
       <c r="D93" s="6" t="n">
-        <v>-17.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B94" s="5" t="n">
-        <v>57609.0</v>
+        <v>1720090.0</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>287966.0</v>
+        <v>1257231.0</v>
       </c>
       <c r="D94" s="6" t="n">
-        <v>-24.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B95" s="5" t="n">
-        <v>132809.0</v>
+        <v>2278047.0</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>669926.0</v>
+        <v>1664438.0</v>
       </c>
       <c r="D95" s="6" t="n">
-        <v>7.7</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B96" s="5" t="n">
-        <v>158601.0</v>
+        <v>2194643.0</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>795965.0</v>
+        <v>1603578.0</v>
       </c>
       <c r="D96" s="6" t="n">
-        <v>-11.4</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="B97" s="5" t="n">
-        <v>124189.0</v>
+        <v>2015450.0</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>638135.0</v>
+        <v>1471279.0</v>
       </c>
       <c r="D97" s="6" t="n">
-        <v>-9.1</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="B98" s="5" t="n">
-        <v>118407.0</v>
+        <v>1690930.0</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>595362.0</v>
+        <v>1234849.0</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>-34.6</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B99" s="5" t="n">
-        <v>145745.0</v>
+        <v>1559448.0</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>706420.0</v>
+        <v>1138794.0</v>
       </c>
       <c r="D99" s="6" t="n">
-        <v>2.2</v>
+        <v>18.7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="B100" s="5" t="n">
-        <v>154087.0</v>
+        <v>1329359.0</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>728357.0</v>
+        <v>971810.0</v>
       </c>
       <c r="D100" s="6" t="n">
-        <v>-22.9</v>
+        <v>-8.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="B101" s="5" t="n">
-        <v>100082.0</v>
+        <v>1618457.0</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>474629.0</v>
+        <v>1182585.0</v>
       </c>
       <c r="D101" s="6" t="n">
-        <v>61.6</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B102" s="5" t="n">
-        <v>132003.0</v>
+        <v>1875987.0</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>622488.0</v>
+        <v>1370728.0</v>
       </c>
       <c r="D102" s="6" t="n">
-        <v>-23.4</v>
+        <v>-9.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="B103" s="5" t="n">
-        <v>125867.0</v>
+        <v>2132012.0</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>631868.0</v>
+        <v>1557753.0</v>
       </c>
       <c r="D103" s="6" t="n">
-        <v>-23.2</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="B104" s="5" t="n">
-        <v>110937.0</v>
+        <v>2080153.0</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>548849.0</v>
+        <v>1520163.0</v>
       </c>
       <c r="D104" s="6" t="n">
-        <v>-30.1</v>
+        <v>-9.3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B105" s="5" t="n">
-        <v>155807.0</v>
+        <v>1995512.0</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>775532.0</v>
-      </c>
-      <c r="D105" s="5" t="n">
-        <v>8.0</v>
+        <v>1458337.0</v>
+      </c>
+      <c r="D105" s="6" t="n">
+        <v>-4.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106" s="5" t="n">
-        <v>-100.0</v>
+        <v>104</v>
+      </c>
+      <c r="B106" s="5" t="n">
+        <v>2025085.0</v>
+      </c>
+      <c r="C106" s="5" t="n">
+        <v>1359376.0</v>
+      </c>
+      <c r="D106" s="6" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107" s="5" t="n">
-        <v>-100.0</v>
+        <v>105</v>
+      </c>
+      <c r="B107" s="5" t="n">
+        <v>2149709.0</v>
+      </c>
+      <c r="C107" s="5" t="n">
+        <v>1442513.0</v>
+      </c>
+      <c r="D107" s="6" t="n">
+        <v>-13.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108"/>
-      <c r="C108"/>
-      <c r="D108" s="5" t="n">
-        <v>-100.0</v>
+        <v>106</v>
+      </c>
+      <c r="B108" s="5" t="n">
+        <v>2015563.0</v>
+      </c>
+      <c r="C108" s="5" t="n">
+        <v>1212948.0</v>
+      </c>
+      <c r="D108" s="6" t="n">
+        <v>-24.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B109"/>
-      <c r="C109"/>
-      <c r="D109" s="5" t="n">
-        <v>-100.0</v>
+        <v>107</v>
+      </c>
+      <c r="B109" s="5" t="n">
+        <v>1927138.0</v>
+      </c>
+      <c r="C109" s="5" t="n">
+        <v>1156283.0</v>
+      </c>
+      <c r="D109" s="6" t="n">
+        <v>-21.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B110"/>
-      <c r="C110"/>
-      <c r="D110" s="5" t="n">
-        <v>-100.0</v>
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="n">
+        <v>1729603.0</v>
+      </c>
+      <c r="C110" s="5" t="n">
+        <v>1041890.0</v>
+      </c>
+      <c r="D110" s="6" t="n">
+        <v>-15.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111" s="5" t="n">
-        <v>-100.0</v>
+        <v>109</v>
+      </c>
+      <c r="B111" s="5" t="n">
+        <v>1567107.0</v>
+      </c>
+      <c r="C111" s="5" t="n">
+        <v>941057.0</v>
+      </c>
+      <c r="D111" s="6" t="n">
+        <v>-17.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B112"/>
-      <c r="C112"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="n">
+        <v>1825661.0</v>
+      </c>
+      <c r="C112" s="5" t="n">
+        <v>1098310.0</v>
+      </c>
       <c r="D112" s="5" t="n">
-        <v>-100.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113" s="5" t="n">
-        <v>-100.0</v>
+        <v>111</v>
+      </c>
+      <c r="B113" s="5" t="n">
+        <v>2003057.0</v>
+      </c>
+      <c r="C113" s="5" t="n">
+        <v>1204371.0</v>
+      </c>
+      <c r="D113" s="6" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114" s="5" t="n">
-        <v>-100.0</v>
+        <v>112</v>
+      </c>
+      <c r="B114" s="5" t="n">
+        <v>1846005.0</v>
+      </c>
+      <c r="C114" s="5" t="n">
+        <v>1109235.0</v>
+      </c>
+      <c r="D114" s="6" t="n">
+        <v>-19.1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115" s="5" t="n">
-        <v>-100.0</v>
+        <v>113</v>
+      </c>
+      <c r="B115" s="5" t="n">
+        <v>2213111.0</v>
+      </c>
+      <c r="C115" s="5" t="n">
+        <v>1329590.0</v>
+      </c>
+      <c r="D115" s="6" t="n">
+        <v>-14.6</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116" s="5" t="n">
-        <v>-100.0</v>
+        <v>114</v>
+      </c>
+      <c r="B116" s="5" t="n">
+        <v>1979488.0</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>1189687.0</v>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>-21.7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="n">
+        <v>2105583.0</v>
+      </c>
+      <c r="C117" s="5" t="n">
+        <v>1265046.0</v>
+      </c>
+      <c r="D117" s="6" t="n">
+        <v>-13.3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5" t="n">
+        <v>1961423.0</v>
+      </c>
+      <c r="C118" s="5" t="n">
+        <v>1177944.0</v>
+      </c>
+      <c r="D118" s="6" t="n">
+        <v>-13.3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5" t="n">
+        <v>1995571.0</v>
+      </c>
+      <c r="C119" s="5" t="n">
+        <v>1200067.0</v>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>-16.8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5" t="n">
+        <v>2191963.0</v>
+      </c>
+      <c r="C120" s="5" t="n">
+        <v>1318050.0</v>
+      </c>
+      <c r="D120" s="6" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" s="5" t="n">
+        <v>2012306.0</v>
+      </c>
+      <c r="C121" s="5" t="n">
+        <v>1211114.0</v>
+      </c>
+      <c r="D121" s="6" t="n">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B122" s="5" t="n">
+        <v>1812567.0</v>
+      </c>
+      <c r="C122" s="5" t="n">
+        <v>1089863.0</v>
+      </c>
+      <c r="D122" s="6" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B123" s="5" t="n">
+        <v>1557363.0</v>
+      </c>
+      <c r="C123" s="5" t="n">
+        <v>934971.0</v>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" s="5" t="n">
+        <v>1726615.0</v>
+      </c>
+      <c r="C124" s="5" t="n">
+        <v>1040700.0</v>
+      </c>
+      <c r="D124" s="6" t="n">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" s="5" t="n">
+        <v>1739768.0</v>
+      </c>
+      <c r="C125" s="5" t="n">
+        <v>1048329.0</v>
+      </c>
+      <c r="D125" s="5" t="n">
+        <v>-13.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B126" s="5" t="n">
+        <v>1722901.0</v>
+      </c>
+      <c r="C126" s="5" t="n">
+        <v>1036050.0</v>
+      </c>
+      <c r="D126" s="6" t="n">
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B127" s="5" t="n">
+        <v>1768732.0</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>1062251.0</v>
+      </c>
+      <c r="D127" s="6" t="n">
+        <v>-20.1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="5" t="n">
+        <v>1815960.0</v>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v>1091323.0</v>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>-8.3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="5" t="n">
+        <v>1613766.0</v>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v>969418.0</v>
+      </c>
+      <c r="D129" s="6" t="n">
+        <v>-23.4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B130" s="5" t="n">
+        <v>1119438.0</v>
+      </c>
+      <c r="C130" s="5" t="n">
+        <v>672399.0</v>
+      </c>
+      <c r="D130" s="6" t="n">
+        <v>-42.9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="5" t="n">
+        <v>1871748.0</v>
+      </c>
+      <c r="C131" s="5" t="n">
+        <v>1123049.0</v>
+      </c>
+      <c r="D131" s="6" t="n">
+        <v>-6.4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B132" s="5" t="n">
+        <v>2396835.0</v>
+      </c>
+      <c r="C132" s="5" t="n">
+        <v>1438101.0</v>
+      </c>
+      <c r="D132" s="6" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" s="5" t="n">
+        <v>2079498.0</v>
+      </c>
+      <c r="C133" s="5" t="n">
+        <v>1247699.0</v>
+      </c>
+      <c r="D133" s="5" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="5" t="n">
+        <v>1842092.0</v>
+      </c>
+      <c r="C134" s="5" t="n">
+        <v>1105255.0</v>
+      </c>
+      <c r="D134" s="6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B135" s="5" t="n">
+        <v>1640279.0</v>
+      </c>
+      <c r="C135" s="5" t="n">
+        <v>984189.0</v>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="5" t="n">
+        <v>1837395.0</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <v>1102534.0</v>
+      </c>
+      <c r="D136" s="6" t="n">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="5" t="n">
+        <v>1961805.0</v>
+      </c>
+      <c r="C137" s="5" t="n">
+        <v>1177083.0</v>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="5" t="n">
+        <v>1383118.0</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>829871.0</v>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>-19.9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="5" t="n">
+        <v>1925937.0</v>
+      </c>
+      <c r="C139" s="5" t="n">
+        <v>1119932.0</v>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="5" t="n">
+        <v>1930747.0</v>
+      </c>
+      <c r="C140" s="5" t="n">
+        <v>1119370.0</v>
+      </c>
+      <c r="D140" s="6" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="5" t="n">
+        <v>2159193.0</v>
+      </c>
+      <c r="C141" s="5" t="n">
+        <v>1255571.0</v>
+      </c>
+      <c r="D141" s="6" t="n">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="5" t="n">
+        <v>1927570.0</v>
+      </c>
+      <c r="C142" s="5" t="n">
+        <v>1120881.0</v>
+      </c>
+      <c r="D142" s="6" t="n">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="5" t="n">
+        <v>1718652.0</v>
+      </c>
+      <c r="C143" s="5" t="n">
+        <v>999396.0</v>
+      </c>
+      <c r="D143" s="5" t="n">
+        <v>-11.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="5" t="n">
+        <v>2129857.0</v>
+      </c>
+      <c r="C144" s="5" t="n">
+        <v>1238512.0</v>
+      </c>
+      <c r="D144" s="6" t="n">
+        <v>-13.9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="5" t="n">
+        <v>2070579.0</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>1204042.0</v>
+      </c>
+      <c r="D145" s="6" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="5" t="n">
+        <v>1896910.0</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <v>1103053.0</v>
+      </c>
+      <c r="D146" s="6" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="5" t="n">
+        <v>1608279.0</v>
+      </c>
+      <c r="C147" s="5" t="n">
+        <v>935214.0</v>
+      </c>
+      <c r="D147" s="5" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="5" t="n">
+        <v>1508292.0</v>
+      </c>
+      <c r="C148" s="5" t="n">
+        <v>877072.0</v>
+      </c>
+      <c r="D148" s="6" t="n">
+        <v>-20.4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B149" s="5" t="n">
+        <v>1707542.0</v>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>992936.0</v>
+      </c>
+      <c r="D149" s="6" t="n">
+        <v>-15.6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B117"/>
-      <c r="C117"/>
-      <c r="D117" s="5" t="n">
-        <v>-100.0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="7" t="s">
+      <c r="B150" s="5" t="n">
+        <v>1917131.0</v>
+      </c>
+      <c r="C150" s="5" t="n">
+        <v>1114812.0</v>
+      </c>
+      <c r="D150" s="6" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" s="5" t="n">
+        <v>2306265.0</v>
+      </c>
+      <c r="C151" s="5" t="n">
+        <v>1341093.0</v>
+      </c>
+      <c r="D151" s="6" t="n">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="5" t="n">
+        <v>2113155.0</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>1228800.0</v>
+      </c>
+      <c r="D152" s="6" t="n">
+        <v>9.8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" s="5" t="n">
+        <v>2051711.0</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>1193070.0</v>
+      </c>
+      <c r="D153" s="5" t="n">
+        <v>-5.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" s="5" t="n">
+        <v>1934089.0</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>1124681.0</v>
+      </c>
+      <c r="D154" s="6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" s="5" t="n">
+        <v>2181955.0</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>1268807.0</v>
+      </c>
+      <c r="D155" s="5" t="n">
+        <v>27.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="5" t="n">
+        <v>2093810.0</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>1258379.0</v>
+      </c>
+      <c r="D156" s="6" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" s="5" t="n">
+        <v>1924304.0</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>1156507.0</v>
+      </c>
+      <c r="D157" s="6" t="n">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" s="5" t="n">
+        <v>1666514.0</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>1001575.0</v>
+      </c>
+      <c r="D158" s="6" t="n">
+        <v>-9.2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="5" t="n">
+        <v>1501334.0</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>902302.0</v>
+      </c>
+      <c r="D159" s="6" t="n">
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" s="5" t="n">
+        <v>1687095.0</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>1013944.0</v>
+      </c>
+      <c r="D160" s="6" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" s="5" t="n">
+        <v>1820698.0</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>1094239.0</v>
+      </c>
+      <c r="D161" s="6" t="n">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" s="5" t="n">
+        <v>2100242.0</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>1262343.0</v>
+      </c>
+      <c r="D162" s="6" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" s="5" t="n">
+        <v>2277769.0</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>1398550.0</v>
+      </c>
+      <c r="D163" s="6" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="5" t="n">
+        <v>2021169.0</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>1240998.0</v>
+      </c>
+      <c r="D164" s="5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" s="5" t="n">
+        <v>2052910.0</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>1260512.0</v>
+      </c>
+      <c r="D165" s="6" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" s="5" t="n">
+        <v>2062390.0</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>1266308.0</v>
+      </c>
+      <c r="D166" s="6" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" s="5" t="n">
+        <v>2044460.0</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>1255099.0</v>
+      </c>
+      <c r="D167" s="6" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" s="5" t="n">
+        <v>1789194.0</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>1098566.0</v>
+      </c>
+      <c r="D168" s="6" t="n">
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B169" s="5" t="n">
+        <v>1853644.0</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>1138137.0</v>
+      </c>
+      <c r="D169" s="6" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170" s="5" t="n">
+        <v>1573317.0</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>966017.0</v>
+      </c>
+      <c r="D170" s="6" t="n">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B171" s="5" t="n">
+        <v>1480574.0</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>909073.0</v>
+      </c>
+      <c r="D171" s="6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172" s="5" t="n">
+        <v>1703971.0</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>1046239.0</v>
+      </c>
+      <c r="D172" s="6" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B173" s="5" t="n">
+        <v>1798576.0</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>1104326.0</v>
+      </c>
+      <c r="D173" s="6" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" s="5" t="n">
+        <v>2061755.0</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>1265917.0</v>
+      </c>
+      <c r="D174" s="6" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B175" s="5" t="n">
+        <v>2435307.0</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>1447790.0</v>
+      </c>
+      <c r="D175" s="6" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B176" s="5" t="n">
+        <v>2268996.0</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>1348918.0</v>
+      </c>
+      <c r="D176" s="6" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B177" s="5" t="n">
+        <v>2486051.0</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>1425750.0</v>
+      </c>
+      <c r="D177" s="6" t="n">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B178" s="5" t="n">
+        <v>2446051.0</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>1402811.0</v>
+      </c>
+      <c r="D178" s="6" t="n">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B179" s="5" t="n">
+        <v>2435063.0</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <v>1396509.0</v>
+      </c>
+      <c r="D179" s="6" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180" s="5" t="n">
+        <v>2148960.0</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>1232429.0</v>
+      </c>
+      <c r="D180" s="6" t="n">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="5" t="n">
+        <v>1911517.0</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>1096255.0</v>
+      </c>
+      <c r="D181" s="6" t="n">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B182" s="5" t="n">
+        <v>1863854.0</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>1068920.0</v>
+      </c>
+      <c r="D182" s="6" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B183" s="5" t="n">
+        <v>1341677.0</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <v>769451.0</v>
+      </c>
+      <c r="D183" s="6" t="n">
+        <v>-15.4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B184" s="5" t="n">
+        <v>1463750.0</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>839461.0</v>
+      </c>
+      <c r="D184" s="6" t="n">
+        <v>-19.8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" s="5" t="n">
+        <v>1452717.0</v>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>769940.0</v>
+      </c>
+      <c r="D185" s="6" t="n">
+        <v>-30.3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B186" s="5" t="n">
+        <v>1148431.0</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>608668.0</v>
+      </c>
+      <c r="D186" s="6" t="n">
+        <v>-51.9</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B187" s="5" t="n">
+        <v>2400933.0</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>1272494.0</v>
+      </c>
+      <c r="D187" s="6" t="n">
+        <v>-12.1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B188" s="5" t="n">
+        <v>2227286.0</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>1180462.0</v>
+      </c>
+      <c r="D188" s="6" t="n">
+        <v>-12.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B189" s="5" t="n">
+        <v>2191725.0</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>1162037.0</v>
+      </c>
+      <c r="D189" s="6" t="n">
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B190" s="5" t="n">
+        <v>2165484.0</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>1105480.0</v>
+      </c>
+      <c r="D190" s="6" t="n">
+        <v>-21.2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B191" s="5" t="n">
+        <v>2106931.0</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>1075588.0</v>
+      </c>
+      <c r="D191" s="5" t="n">
+        <v>-23.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B192" s="5" t="n">
+        <v>1859714.0</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>949384.0</v>
+      </c>
+      <c r="D192" s="5" t="n">
+        <v>-23.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B193" s="5" t="n">
+        <v>1922251.0</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>981309.0</v>
+      </c>
+      <c r="D193" s="6" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B194" s="5" t="n">
+        <v>1714714.0</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>875450.0</v>
+      </c>
+      <c r="D194" s="6" t="n">
+        <v>-18.1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B195" s="5" t="n">
+        <v>1342960.0</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>685581.0</v>
+      </c>
+      <c r="D195" s="6" t="n">
+        <v>-10.9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B196" s="5" t="n">
+        <v>1594926.0</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>814235.0</v>
+      </c>
+      <c r="D196" s="5" t="n">
+        <v>-3.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B197" s="5" t="n">
+        <v>1536604.0</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>784435.0</v>
+      </c>
+      <c r="D197" s="6" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B198" s="5" t="n">
+        <v>1851215.0</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>945046.0</v>
+      </c>
+      <c r="D198" s="6" t="n">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" s="5" t="n">
+        <v>1997736.0</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>1058800.0</v>
+      </c>
+      <c r="D199" s="6" t="n">
+        <v>-16.8</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200" s="5" t="n">
+        <v>1854830.0</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>946891.0</v>
+      </c>
+      <c r="D200" s="6" t="n">
+        <v>-19.8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201" s="5" t="n">
+        <v>2118859.0</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>1081678.0</v>
+      </c>
+      <c r="D201" s="6" t="n">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202" s="5" t="n">
+        <v>2214997.0</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>1130756.0</v>
+      </c>
+      <c r="D202" s="6" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B203" s="5" t="n">
+        <v>2177677.0</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <v>1111704.0</v>
+      </c>
+      <c r="D203" s="6" t="n">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" s="5" t="n">
+        <v>1932298.0</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>986438.0</v>
+      </c>
+      <c r="D204" s="6" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B205" s="5" t="n">
+        <v>1827832.0</v>
+      </c>
+      <c r="C205" s="5" t="n">
+        <v>933108.0</v>
+      </c>
+      <c r="D205" s="6" t="n">
+        <v>-4.9</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" s="5" t="n">
+        <v>1639963.0</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>837201.0</v>
+      </c>
+      <c r="D206" s="6" t="n">
+        <v>-4.4</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B207" s="5" t="n">
+        <v>1526845.0</v>
+      </c>
+      <c r="C207" s="5" t="n">
+        <v>779455.0</v>
+      </c>
+      <c r="D207" s="6" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B208" s="5" t="n">
+        <v>1711253.0</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <v>906964.0</v>
+      </c>
+      <c r="D208" s="6" t="n">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" s="5" t="n">
+        <v>1841678.0</v>
+      </c>
+      <c r="C209" s="5" t="n">
+        <v>976089.0</v>
+      </c>
+      <c r="D209" s="6" t="n">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" s="5" t="n">
+        <v>2041798.0</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <v>1082153.0</v>
+      </c>
+      <c r="D210" s="6" t="n">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B211" s="5" t="n">
+        <v>2212309.0</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>1172524.0</v>
+      </c>
+      <c r="D211" s="6" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B212" s="5" t="n">
+        <v>2022459.0</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>1071904.0</v>
+      </c>
+      <c r="D212" s="6" t="n">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B213" s="5" t="n">
+        <v>2210656.0</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <v>1171674.0</v>
+      </c>
+      <c r="D213" s="6" t="n">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B214" s="5" t="n">
+        <v>2307728.0</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <v>1223095.0</v>
+      </c>
+      <c r="D214" s="6" t="n">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B215" s="5" t="n">
+        <v>2341431.0</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <v>1240958.0</v>
+      </c>
+      <c r="D215" s="6" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216" s="5" t="n">
+        <v>2053322.0</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>1088261.0</v>
+      </c>
+      <c r="D216" s="6" t="n">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B217" s="5" t="n">
+        <v>1902517.0</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <v>1011334.0</v>
+      </c>
+      <c r="D217" s="6" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B218" s="5" t="n">
+        <v>1649648.0</v>
+      </c>
+      <c r="C218" s="5" t="n">
+        <v>874313.0</v>
+      </c>
+      <c r="D218" s="6" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B219" s="5" t="n">
+        <v>1479229.0</v>
+      </c>
+      <c r="C219" s="5" t="n">
+        <v>783992.0</v>
+      </c>
+      <c r="D219" s="6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B220" s="5" t="n">
+        <v>1512581.0</v>
+      </c>
+      <c r="C220" s="5" t="n">
+        <v>801667.0</v>
+      </c>
+      <c r="D220" s="6" t="n">
+        <v>-11.6</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221" s="5" t="n">
+        <v>1658433.0</v>
+      </c>
+      <c r="C221" s="5" t="n">
+        <v>878969.0</v>
+      </c>
+      <c r="D221" s="6" t="n">
+        <v>-9.9</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B222" s="5" t="n">
+        <v>1827759.0</v>
+      </c>
+      <c r="C222" s="5" t="n">
+        <v>968711.0</v>
+      </c>
+      <c r="D222" s="6" t="n">
+        <v>-10.5</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B223" s="5" t="n">
+        <v>2030895.0</v>
+      </c>
+      <c r="C223" s="5" t="n">
+        <v>1076375.0</v>
+      </c>
+      <c r="D223" s="6" t="n">
+        <v>-8.2</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B224" s="5" t="n">
+        <v>1846524.0</v>
+      </c>
+      <c r="C224" s="5" t="n">
+        <v>978657.0</v>
+      </c>
+      <c r="D224" s="6" t="n">
+        <v>-8.7</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B225" s="5" t="n">
+        <v>2124758.0</v>
+      </c>
+      <c r="C225" s="5" t="n">
+        <v>1126122.0</v>
+      </c>
+      <c r="D225" s="6" t="n">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226" s="5" t="n">
+        <v>2082786.0</v>
+      </c>
+      <c r="C226" s="5" t="n">
+        <v>1103876.0</v>
+      </c>
+      <c r="D226" s="6" t="n">
+        <v>-9.7</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227" s="5" t="n">
+        <v>2178993.0</v>
+      </c>
+      <c r="C227" s="5" t="n">
+        <v>1154866.0</v>
+      </c>
+      <c r="D227" s="6" t="n">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B228" s="5" t="n">
+        <v>1930987.0</v>
+      </c>
+      <c r="C228" s="5" t="n">
+        <v>1023423.0</v>
+      </c>
+      <c r="D228" s="5" t="n">
+        <v>-6.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B229" s="5" t="n">
+        <v>1743411.0</v>
+      </c>
+      <c r="C229" s="5" t="n">
+        <v>924008.0</v>
+      </c>
+      <c r="D229" s="6" t="n">
+        <v>-8.6</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B230" s="5" t="n">
+        <v>1676695.0</v>
+      </c>
+      <c r="C230" s="5" t="n">
+        <v>888649.0</v>
+      </c>
+      <c r="D230" s="6" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B231" s="5" t="n">
+        <v>1496244.0</v>
+      </c>
+      <c r="C231" s="5" t="n">
+        <v>793009.0</v>
+      </c>
+      <c r="D231" s="6" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B232" s="5" t="n">
+        <v>1604335.0</v>
+      </c>
+      <c r="C232" s="5" t="n">
+        <v>850298.0</v>
+      </c>
+      <c r="D232" s="6" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B233" s="5" t="n">
+        <v>1693711.0</v>
+      </c>
+      <c r="C233" s="5" t="n">
+        <v>897667.0</v>
+      </c>
+      <c r="D233" s="6" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B234" s="5" t="n">
+        <v>1986890.0</v>
+      </c>
+      <c r="C234" s="5" t="n">
+        <v>1053051.0</v>
+      </c>
+      <c r="D234" s="6" t="n">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B235" s="5" t="n">
+        <v>2103765.0</v>
+      </c>
+      <c r="C235" s="5" t="n">
+        <v>1114994.0</v>
+      </c>
+      <c r="D235" s="6" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B236" s="5" t="n">
+        <v>2085753.0</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <v>1105449.0</v>
+      </c>
+      <c r="D236" s="5" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B237" s="5" t="n">
+        <v>2297087.0</v>
+      </c>
+      <c r="C237" s="5" t="n">
+        <v>1217456.0</v>
+      </c>
+      <c r="D237" s="6" t="n">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B238" s="5" t="n">
+        <v>2398880.0</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <v>1271406.0</v>
+      </c>
+      <c r="D238" s="6" t="n">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B239" s="5" t="n">
+        <v>2347504.0</v>
+      </c>
+      <c r="C239" s="5" t="n">
+        <v>1244177.0</v>
+      </c>
+      <c r="D239" s="6" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B240" s="5" t="n">
+        <v>2068911.0</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>1096523.0</v>
+      </c>
+      <c r="D240" s="6" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B241" s="5" t="n">
+        <v>1902772.0</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>1008470.0</v>
+      </c>
+      <c r="D241" s="6" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B242" s="5" t="n">
+        <v>1739967.0</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>922182.0</v>
+      </c>
+      <c r="D242" s="6" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B243" s="5" t="n">
+        <v>1641959.0</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>870238.0</v>
+      </c>
+      <c r="D243" s="6" t="n">
+        <v>9.7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" s="5" t="n">
+        <v>1448442.0</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>767674.0</v>
+      </c>
+      <c r="D244" s="6" t="n">
+        <v>-9.7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245" s="5" t="n">
+        <v>1535377.0</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>813750.0</v>
+      </c>
+      <c r="D245" s="6" t="n">
+        <v>-9.3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B246" s="5" t="n">
+        <v>1792869.0</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>950220.0</v>
+      </c>
+      <c r="D246" s="6" t="n">
+        <v>-9.8</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B247" s="5" t="n">
+        <v>2009109.0</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>1090946.0</v>
+      </c>
+      <c r="D247" s="6" t="n">
+        <v>-2.2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B248" s="5" t="n">
+        <v>1932618.0</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>1049411.0</v>
+      </c>
+      <c r="D248" s="6" t="n">
+        <v>-5.1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B249" s="5" t="n">
+        <v>2226385.0</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>1208927.0</v>
+      </c>
+      <c r="D249" s="6" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B250" s="5" t="n">
+        <v>2117679.0</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>1149900.0</v>
+      </c>
+      <c r="D250" s="6" t="n">
+        <v>-9.6</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B251" s="5" t="n">
+        <v>2235183.0</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>1213704.0</v>
+      </c>
+      <c r="D251" s="6" t="n">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B252" s="5" t="n">
+        <v>1942215.0</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>1054623.0</v>
+      </c>
+      <c r="D252" s="6" t="n">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B253" s="5" t="n">
+        <v>1823926.0</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>990391.0</v>
+      </c>
+      <c r="D253" s="6" t="n">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B254" s="5" t="n">
+        <v>1792885.0</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>973536.0</v>
+      </c>
+      <c r="D254" s="6" t="n">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B255" s="5" t="n">
+        <v>1722282.0</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>935199.0</v>
+      </c>
+      <c r="D255" s="6" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B256" s="5" t="n">
+        <v>1742442.0</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>946146.0</v>
+      </c>
+      <c r="D256" s="6" t="n">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B257" s="5" t="n">
+        <v>1784483.0</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>968974.0</v>
+      </c>
+      <c r="D257" s="6" t="n">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B258" s="5" t="n">
+        <v>1881527.0</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>1021669.0</v>
+      </c>
+      <c r="D258" s="6" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B259" s="5" t="n">
+        <v>2055462.0</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>1116116.0</v>
+      </c>
+      <c r="D259" s="6" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B260" s="5" t="n">
+        <v>1877062.0</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>1019244.0</v>
+      </c>
+      <c r="D260" s="6" t="n">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B261" s="5" t="n">
+        <v>2124802.0</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>1153767.0</v>
+      </c>
+      <c r="D261" s="6" t="n">
+        <v>-4.6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B262" s="5" t="n">
+        <v>2129043.0</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>1190668.0</v>
+      </c>
+      <c r="D262" s="6" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B263" s="5" t="n">
+        <v>2132072.0</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>1227066.0</v>
+      </c>
+      <c r="D263" s="6" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B264" s="5" t="n">
+        <v>1871494.0</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>1077044.0</v>
+      </c>
+      <c r="D264" s="6" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B265" s="5" t="n">
+        <v>1818551.0</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>1046575.0</v>
+      </c>
+      <c r="D265" s="6" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B266" s="5" t="n">
+        <v>1662420.0</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>956722.0</v>
+      </c>
+      <c r="D266" s="6" t="n">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B267" s="5" t="n">
+        <v>1585148.0</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>912252.0</v>
+      </c>
+      <c r="D267" s="6" t="n">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268" s="5" t="n">
+        <v>1744994.0</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>1004244.0</v>
+      </c>
+      <c r="D268" s="6" t="n">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B269" s="5" t="n">
+        <v>1753879.0</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>1009357.0</v>
+      </c>
+      <c r="D269" s="6" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" s="5" t="n">
+        <v>1775212.0</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>1021634.0</v>
+      </c>
+      <c r="D270" s="5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B271" s="5" t="n">
+        <v>1929129.0</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>1122753.0</v>
+      </c>
+      <c r="D271" s="6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B272" s="5" t="n">
+        <v>1769679.0</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>1029953.0</v>
+      </c>
+      <c r="D272" s="6" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B273" s="5" t="n">
+        <v>2020733.0</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>1176067.0</v>
+      </c>
+      <c r="D273" s="6" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B274" s="5" t="n">
+        <v>2013029.0</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>1171583.0</v>
+      </c>
+      <c r="D274" s="6" t="n">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B275" s="5" t="n">
+        <v>2018488.0</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>1174759.0</v>
+      </c>
+      <c r="D275" s="6" t="n">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B276" s="5" t="n">
+        <v>1771204.0</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>1030841.0</v>
+      </c>
+      <c r="D276" s="6" t="n">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B277" s="5" t="n">
+        <v>1763019.0</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>1026077.0</v>
+      </c>
+      <c r="D277" s="5" t="n">
+        <v>-2.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B278" s="5" t="n">
+        <v>1624555.0</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>945491.0</v>
+      </c>
+      <c r="D278" s="6" t="n">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B279" s="5" t="n">
+        <v>1552010.0</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>903270.0</v>
+      </c>
+      <c r="D279" s="5" t="n">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B280" s="5" t="n">
+        <v>1662746.0</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>967718.0</v>
+      </c>
+      <c r="D280" s="6" t="n">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281" s="5" t="n">
+        <v>1672527.0</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>973411.0</v>
+      </c>
+      <c r="D281" s="6" t="n">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B282" s="5" t="n">
+        <v>1739714.0</v>
+      </c>
+      <c r="C282" s="5" t="n">
+        <v>1012514.0</v>
+      </c>
+      <c r="D282" s="6" t="n">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283" s="5" t="n">
+        <v>2130557.0</v>
+      </c>
+      <c r="C283" s="5" t="n">
+        <v>1184590.0</v>
+      </c>
+      <c r="D283" s="6" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="7" t="s">
+    <row r="295">
+      <c r="A295" s="7" t="s">
         <v>285</v>
       </c>
     </row>
@@ -6779,143 +9219,143 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>50554.0</v>
+        <v>95.0</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>247787.0</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>288</v>
+        <v>500.0</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>669.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>122088.0</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>595058.0</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>288</v>
+        <v>6</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" s="5" t="n">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>185348.0</v>
+        <v>500.0</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>891107.0</v>
+        <v>1600.0</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>129396.0</v>
+        <v>1160.0</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>630886.0</v>
+        <v>1100.0</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>170859.0</v>
+        <v>202.0</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>832453.0</v>
+        <v>2061.0</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>118726.0</v>
+        <v>100.0</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>569585.0</v>
+        <v>441.0</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>20551.0</v>
+        <v>30.0</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>103485.0</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>288</v>
+        <v>124.0</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>396.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>19.0</v>
+        <v>858.0</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>288</v>
+        <v>760.0</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-94.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>4.0</v>
+        <v>161.0</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1367.0</v>
+        <v>5883.0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16" s="5" t="n">
-        <v>-100.0</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>394.0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>57.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
@@ -6925,1473 +9365,1493 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>23.0</v>
+        <v>118.0</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>168.0</v>
+        <v>540.0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-100.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>262.0</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>-100.0</v>
+        <v>37.0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>39.0</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
       <c r="D20" s="5" t="n">
         <v>-100.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>259.0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21"/>
       <c r="D21" s="5" t="n">
         <v>-100.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>40.0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
       <c r="D22" s="5" t="n">
         <v>-100.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="B23" s="5" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>288</v>
+        <v>164.0</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>-62.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>276.0</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24"/>
       <c r="D24" s="5" t="n">
-        <v>300.0</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>288</v>
+        <v>24</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25" s="5" t="n">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>288</v>
+        <v>26</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" s="5" t="n">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="B27" s="5" t="n">
-        <v>16.0</v>
+        <v>15000.0</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>-96.3</v>
+        <v>44688.0</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5" t="n">
-        <v>192.0</v>
+        <v>48.0</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>376.0</v>
+        <v>177.0</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="5" t="n">
-        <v>128.0</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>288</v>
+        <v>29</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29" s="5" t="n">
+        <v>-100.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5" t="n">
-        <v>156.0</v>
+        <v>76781.0</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1499.0</v>
-      </c>
-      <c r="D30" s="6" t="n">
-        <v>792.3</v>
+        <v>40231.0</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5" t="n">
-        <v>11.0</v>
+        <v>123408.0</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D31" s="6" t="n">
-        <v>-93.1</v>
+        <v>61380.0</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5" t="n">
-        <v>4.0</v>
+        <v>138660.0</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="D32" s="6" t="n">
-        <v>-82.1</v>
+        <v>69001.0</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5" t="n">
-        <v>12.0</v>
+        <v>185100.0</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="D33" s="6" t="n">
-        <v>-42.5</v>
+        <v>94489.0</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="B34" s="5" t="n">
-        <v>78.0</v>
+        <v>185515.0</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>371.0</v>
-      </c>
-      <c r="D34" s="6" t="n">
-        <v>827.5</v>
+        <v>95954.0</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="B35" s="5" t="n">
-        <v>25.0</v>
+        <v>155333.0</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>226.0</v>
+        <v>82828.0</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="B36" s="5" t="n">
-        <v>27.0</v>
+        <v>15636.0</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>996.0</v>
-      </c>
-      <c r="D36" s="6" t="n">
-        <v>260.9</v>
+        <v>7956.0</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="B37" s="5" t="n">
-        <v>10.0</v>
+        <v>582.0</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="D37" s="6" t="n">
-        <v>87.5</v>
+        <v>1165.0</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="B38" s="5" t="n">
-        <v>108.0</v>
+        <v>77859.0</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>2430.0</v>
+        <v>40299.0</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="B39" s="5" t="n">
-        <v>84.0</v>
+        <v>201599.0</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>1187.0</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>289</v>
+        <v>104766.0</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>134.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="B40" s="5" t="n">
-        <v>12.0</v>
+        <v>62100.0</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="D40" s="6" t="n">
-        <v>-91.2</v>
+        <v>33157.0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41" s="5" t="n">
-        <v>-100.0</v>
+        <v>41</v>
+      </c>
+      <c r="B41" s="5" t="n">
+        <v>108112.0</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>54820.0</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>175</v>
+        <v>42</v>
       </c>
       <c r="B42" s="5" t="n">
-        <v>79.0</v>
+        <v>15500.0</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>140.0</v>
+        <v>7744.0</v>
       </c>
       <c r="D42" s="6" t="n">
-        <v>-90.7</v>
+        <v>-80.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="B43" s="5" t="n">
-        <v>38.0</v>
+        <v>92326.0</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>111.0</v>
+        <v>46830.0</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>516.7</v>
+        <v>-23.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="B44" s="5" t="n">
-        <v>1.0</v>
+        <v>15438.0</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>5.0</v>
+        <v>8175.0</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-28.6</v>
+        <v>-88.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45" s="5" t="n">
-        <v>-100.0</v>
+        <v>45</v>
+      </c>
+      <c r="B45" s="5" t="n">
+        <v>154661.0</v>
+      </c>
+      <c r="C45" s="5" t="n">
+        <v>80832.0</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>-14.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46" s="5" t="n">
-        <v>-100.0</v>
+        <v>46</v>
+      </c>
+      <c r="B46" s="5" t="n">
+        <v>108660.0</v>
+      </c>
+      <c r="C46" s="5" t="n">
+        <v>55372.0</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>-42.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47" s="5" t="n">
-        <v>-100.0</v>
+        <v>47</v>
+      </c>
+      <c r="B47" s="5" t="n">
+        <v>15978.0</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>8847.0</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>-89.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
       <c r="B48" s="5" t="n">
-        <v>2.0</v>
+        <v>62100.0</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.0</v>
+        <v>32889.0</v>
       </c>
       <c r="D48" s="6" t="n">
-        <v>-99.6</v>
+        <v>313.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49" s="5" t="n">
-        <v>-100.0</v>
+        <v>49</v>
+      </c>
+      <c r="B49" s="5" t="n">
+        <v>185223.0</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>92882.0</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50" s="5" t="n">
-        <v>-100.0</v>
+        <v>50</v>
+      </c>
+      <c r="B50" s="5" t="n">
+        <v>92295.0</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>47001.0</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>16.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="B51" s="5" t="n">
-        <v>6.0</v>
+        <v>123540.0</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>232.0</v>
+        <v>60518.0</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-80.5</v>
+        <v>-42.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52" s="5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="C52" s="5" t="n">
-        <v>32.0</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
       <c r="D52" s="5" t="n">
-        <v>-3.0</v>
+        <v>-100.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="B53" s="5" t="n">
-        <v>46.0</v>
+        <v>139138.0</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>124.0</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>288</v>
+        <v>71973.0</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>31.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="B54" s="5" t="n">
-        <v>42.0</v>
+        <v>47670.0</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="D54" s="5" t="n">
-        <v>-70.0</v>
+        <v>25503.0</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>229.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="B55" s="5" t="n">
-        <v>2.0</v>
+        <v>92480.0</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>2.0</v>
+        <v>48805.0</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-98.2</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>189</v>
+        <v>56</v>
       </c>
       <c r="B56" s="5" t="n">
-        <v>11.0</v>
+        <v>15856.0</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>332.0</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>289</v>
+        <v>8544.0</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>190</v>
+        <v>57</v>
       </c>
       <c r="B57" s="5" t="n">
-        <v>25.0</v>
+        <v>61987.0</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>208.0</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>288</v>
+        <v>33696.0</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>-58.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="B58" s="5" t="n">
-        <v>8.0</v>
+        <v>93099.0</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>859.0</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>288</v>
+        <v>50219.0</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>-9.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>192</v>
+        <v>59</v>
       </c>
       <c r="B59" s="5" t="n">
-        <v>12.0</v>
+        <v>170220.0</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>483.0</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>288</v>
+        <v>91515.0</v>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>934.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="B60" s="5" t="n">
-        <v>8.0</v>
+        <v>46379.0</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="D60" s="5" t="n">
-        <v>675.0</v>
+        <v>24081.0</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <v>-26.8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c r="B61" s="5" t="n">
-        <v>2.0</v>
+        <v>30906.0</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>375.0</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>288</v>
+        <v>16240.0</v>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>-82.5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62" s="5" t="n">
-        <v>-100.0</v>
+        <v>62</v>
+      </c>
+      <c r="B62" s="5" t="n">
+        <v>139480.0</v>
+      </c>
+      <c r="C62" s="5" t="n">
+        <v>73079.0</v>
+      </c>
+      <c r="D62" s="6" t="n">
+        <v>55.5</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63" s="5" t="n">
-        <v>-100.0</v>
+        <v>63</v>
+      </c>
+      <c r="B63" s="5" t="n">
+        <v>92823.0</v>
+      </c>
+      <c r="C63" s="5" t="n">
+        <v>49306.0</v>
+      </c>
+      <c r="D63" s="6" t="n">
+        <v>-18.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>198</v>
+        <v>64</v>
       </c>
       <c r="B64" s="5" t="n">
-        <v>40.0</v>
+        <v>46373.0</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D64" s="6" t="n">
-        <v>-78.2</v>
+        <v>24637.0</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>199</v>
+        <v>65</v>
       </c>
       <c r="B65" s="5" t="n">
-        <v>11.0</v>
+        <v>31740.0</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>244.0</v>
-      </c>
-      <c r="D65" s="5" t="n">
-        <v>481.0</v>
+        <v>16936.0</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>-76.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>200</v>
+        <v>66</v>
       </c>
       <c r="B66" s="5" t="n">
-        <v>12.0</v>
+        <v>61960.0</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>289</v>
+        <v>31156.0</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67" s="5" t="n">
-        <v>-100.0</v>
+        <v>67</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <v>170827.0</v>
+      </c>
+      <c r="C67" s="5" t="n">
+        <v>93483.0</v>
+      </c>
+      <c r="D67" s="6" t="n">
+        <v>91.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="B68" s="5" t="n">
-        <v>10.0</v>
+        <v>792.0</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>147.0</v>
+        <v>975.0</v>
       </c>
       <c r="D68" s="6" t="n">
-        <v>-29.3</v>
+        <v>-88.6</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c r="B69" s="5" t="n">
-        <v>18.0</v>
+        <v>31010.0</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>89.0</v>
+        <v>19494.0</v>
       </c>
       <c r="D69" s="6" t="n">
-        <v>-89.6</v>
+        <v>-42.1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="B70" s="5" t="n">
-        <v>25.0</v>
+        <v>4.0</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>291.0</v>
+        <v>30.0</v>
       </c>
       <c r="D70" s="6" t="n">
-        <v>-39.8</v>
+        <v>-99.9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="B71" s="5" t="n">
-        <v>66.0</v>
+        <v>3592.0</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>88.0</v>
+        <v>5193.0</v>
       </c>
       <c r="D71" s="6" t="n">
-        <v>183.9</v>
+        <v>-94.3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>206</v>
+        <v>72</v>
       </c>
       <c r="B72" s="5" t="n">
-        <v>7.0</v>
+        <v>403.0</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>288</v>
+        <v>923.0</v>
+      </c>
+      <c r="D72" s="6" t="n">
+        <v>-96.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="B73" s="5" t="n">
-        <v>9.0</v>
+        <v>586.0</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>687.0</v>
+        <v>1381.0</v>
       </c>
       <c r="D73" s="6" t="n">
-        <v>83.2</v>
+        <v>-91.5</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="B74" s="5" t="n">
-        <v>2.0</v>
+        <v>2335.0</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>288</v>
+        <v>3535.0</v>
+      </c>
+      <c r="D74" s="6" t="n">
+        <v>-95.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="B75" s="5" t="n">
-        <v>5.0</v>
+        <v>1071.0</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>681.0</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>289</v>
+        <v>2833.0</v>
+      </c>
+      <c r="D75" s="6" t="n">
+        <v>-94.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="B76" s="5" t="n">
-        <v>163.0</v>
+        <v>25505.0</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>1233.0</v>
+        <v>31243.0</v>
       </c>
       <c r="D76" s="6" t="n">
-        <v>405.3</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="B77" s="5" t="n">
-        <v>4.0</v>
+        <v>776.0</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>341.0</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>289</v>
+        <v>1455.0</v>
+      </c>
+      <c r="D77" s="6" t="n">
+        <v>-91.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>214</v>
+        <v>78</v>
       </c>
       <c r="B78" s="5" t="n">
-        <v>4.0</v>
+        <v>1564.0</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>10.0</v>
+        <v>2304.0</v>
       </c>
       <c r="D78" s="6" t="n">
-        <v>-93.2</v>
+        <v>-92.6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="B79" s="5" t="n">
-        <v>2.0</v>
+        <v>2717.0</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>19.0</v>
+        <v>2910.0</v>
       </c>
       <c r="D79" s="6" t="n">
-        <v>-78.7</v>
+        <v>-96.9</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="B80" s="5" t="n">
-        <v>50.0</v>
+        <v>572.0</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>1238.0</v>
+        <v>4062.0</v>
       </c>
       <c r="D80" s="6" t="n">
-        <v>325.4</v>
+        <v>316.6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81" s="5" t="n">
-        <v>-100.0</v>
+        <v>81</v>
+      </c>
+      <c r="B81" s="5" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="C81" s="5" t="n">
+        <v>3937.0</v>
+      </c>
+      <c r="D81" s="6" t="n">
+        <v>-79.8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="B82" s="5" t="n">
-        <v>1.0</v>
+        <v>1827.0</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D82" s="6" t="n">
-        <v>-70.2</v>
+        <v>3203.0</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="B83" s="5" t="n">
-        <v>31.0</v>
+        <v>2397.0</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>180.0</v>
+        <v>3853.0</v>
       </c>
       <c r="D83" s="6" t="n">
-        <v>-73.8</v>
+        <v>-25.8</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>220</v>
+        <v>84</v>
       </c>
       <c r="B84" s="5" t="n">
-        <v>23.0</v>
+        <v>525.0</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>289</v>
+        <v>1438.0</v>
+      </c>
+      <c r="D84" s="6" t="n">
+        <v>55.8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="B85" s="5" t="n">
-        <v>17.0</v>
+        <v>950.0</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>288</v>
+        <v>1630.0</v>
+      </c>
+      <c r="D85" s="5" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="B86" s="5" t="n">
-        <v>10.0</v>
+        <v>1845.0</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>145.0</v>
+        <v>3805.0</v>
       </c>
       <c r="D86" s="6" t="n">
-        <v>-78.7</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="B87" s="5" t="n">
-        <v>19.0</v>
+        <v>26636.0</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="D87" s="6" t="n">
-        <v>-88.4</v>
+        <v>43392.0</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="B88" s="5" t="n">
-        <v>3.0</v>
+        <v>717.0</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>29.0</v>
+        <v>1510.0</v>
       </c>
       <c r="D88" s="6" t="n">
-        <v>-91.5</v>
+        <v>-95.2</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>225</v>
+        <v>89</v>
       </c>
       <c r="B89" s="5" t="n">
-        <v>5.0</v>
+        <v>7478.0</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>1699.0</v>
+        <v>19628.0</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="B90" s="5" t="n">
-        <v>119.0</v>
+        <v>645.0</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>505.0</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>289</v>
+        <v>1583.0</v>
+      </c>
+      <c r="D90" s="6" t="n">
+        <v>-31.3</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="B91" s="5" t="n">
-        <v>31.0</v>
+        <v>1067.0</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>105.0</v>
+        <v>2438.0</v>
       </c>
       <c r="D91" s="6" t="n">
-        <v>452.6</v>
+        <v>-16.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="B92" s="5" t="n">
-        <v>5.0</v>
+        <v>16571.0</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>69.0</v>
+        <v>38068.0</v>
       </c>
       <c r="D92" s="6" t="n">
-        <v>-94.4</v>
+        <v>837.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="B93" s="5" t="n">
-        <v>8.0</v>
+        <v>7904.0</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>288</v>
+        <v>17978.0</v>
+      </c>
+      <c r="D93" s="6" t="n">
+        <v>356.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>230</v>
+        <v>94</v>
       </c>
       <c r="B94" s="5" t="n">
-        <v>3.0</v>
+        <v>21439.0</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D94" s="6" t="n">
-        <v>-85.7</v>
+        <v>44325.0</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>231</v>
+        <v>95</v>
       </c>
       <c r="B95" s="5" t="n">
-        <v>6.0</v>
+        <v>1890.0</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D95" s="6" t="n">
-        <v>-96.7</v>
+        <v>3777.0</v>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c r="B96" s="5" t="n">
-        <v>12.0</v>
+        <v>806.0</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>17.0</v>
+        <v>1846.0</v>
       </c>
       <c r="D96" s="6" t="n">
-        <v>-86.9</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="B97" s="5" t="n">
-        <v>9.0</v>
+        <v>10200.0</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>174.0</v>
-      </c>
-      <c r="D97" s="6" t="n">
-        <v>185.2</v>
+        <v>26333.0</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="B98" s="5" t="n">
-        <v>216.0</v>
+        <v>607.0</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>636.0</v>
+        <v>1698.0</v>
       </c>
       <c r="D98" s="6" t="n">
-        <v>338.6</v>
+        <v>-55.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="B99" s="5" t="n">
-        <v>12.0</v>
+        <v>25869.0</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>193.0</v>
-      </c>
-      <c r="D99" s="5" t="n">
-        <v>35.0</v>
+        <v>44852.0</v>
+      </c>
+      <c r="D99" s="6" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100" s="5" t="n">
-        <v>-100.0</v>
+        <v>100</v>
+      </c>
+      <c r="B100" s="5" t="n">
+        <v>12820.0</v>
+      </c>
+      <c r="C100" s="5" t="n">
+        <v>25710.0</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101" s="5" t="n">
-        <v>-100.0</v>
+        <v>101</v>
+      </c>
+      <c r="B101" s="5" t="n">
+        <v>12027.0</v>
+      </c>
+      <c r="C101" s="5" t="n">
+        <v>24428.0</v>
+      </c>
+      <c r="D101" s="6" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="B102" s="5" t="n">
-        <v>26.0</v>
+        <v>26550.0</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="D102" s="6" t="n">
-        <v>-67.3</v>
+        <v>48414.0</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="B103" s="5" t="n">
-        <v>111.0</v>
+        <v>3315.0</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>968.0</v>
+        <v>4798.0</v>
       </c>
       <c r="D103" s="6" t="n">
-        <v>821.9</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="B104" s="5" t="n">
-        <v>10.0</v>
+        <v>663.0</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>72.0</v>
+        <v>2178.0</v>
       </c>
       <c r="D104" s="6" t="n">
-        <v>4.3</v>
+        <v>-94.3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="B105" s="5" t="n">
-        <v>28.0</v>
+        <v>51679.0</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>266.0</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>289</v>
+        <v>93305.0</v>
+      </c>
+      <c r="D105" s="5" t="n">
+        <v>419.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="B106" s="5" t="n">
-        <v>30.0</v>
+        <v>26850.0</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>325.0</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>289</v>
+        <v>49468.0</v>
+      </c>
+      <c r="D106" s="6" t="n">
+        <v>11.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="B107" s="5" t="n">
-        <v>11.0</v>
+        <v>1938.0</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>289</v>
+        <v>3237.0</v>
+      </c>
+      <c r="D107" s="6" t="n">
+        <v>-14.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="B108" s="5" t="n">
-        <v>24.0</v>
+        <v>8917.0</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>148.0</v>
+        <v>9295.0</v>
       </c>
       <c r="D108" s="6" t="n">
-        <v>770.6</v>
+        <v>403.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="B109" s="5" t="n">
-        <v>3.0</v>
+        <v>3100.0</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="D109" s="6" t="n">
-        <v>-83.3</v>
+        <v>5781.0</v>
+      </c>
+      <c r="D109" s="5" t="n">
+        <v>-78.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>246</v>
+        <v>110</v>
       </c>
       <c r="B110" s="5" t="n">
-        <v>12.0</v>
+        <v>2147.0</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>101.0</v>
+        <v>3658.0</v>
       </c>
       <c r="D110" s="6" t="n">
-        <v>-84.1</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>247</v>
+        <v>111</v>
       </c>
       <c r="B111" s="5" t="n">
-        <v>10.0</v>
+        <v>1081.0</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>20.0</v>
+        <v>3105.0</v>
       </c>
       <c r="D111" s="6" t="n">
-        <v>-89.6</v>
+        <v>-93.1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>248</v>
+        <v>112</v>
       </c>
       <c r="B112" s="5" t="n">
-        <v>1.0</v>
+        <v>1209.0</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>288</v>
+        <v>2758.0</v>
+      </c>
+      <c r="D112" s="6" t="n">
+        <v>-89.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="B113" s="5" t="n">
-        <v>21.0</v>
+        <v>1000.0</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>288</v>
+        <v>2148.0</v>
+      </c>
+      <c r="D113" s="6" t="n">
+        <v>-91.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="B114" s="5" t="n">
-        <v>2.0</v>
+        <v>1877.0</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>8.0</v>
+        <v>3188.0</v>
       </c>
       <c r="D114" s="6" t="n">
-        <v>-95.2</v>
+        <v>-93.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="B115" s="5" t="n">
-        <v>10.0</v>
+        <v>2227.0</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>22.0</v>
+        <v>3802.0</v>
       </c>
       <c r="D115" s="6" t="n">
-        <v>-97.7</v>
+        <v>-20.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116" s="5" t="n">
-        <v>-100.0</v>
+        <v>116</v>
+      </c>
+      <c r="B116" s="5" t="n">
+        <v>1767.0</v>
+      </c>
+      <c r="C116" s="5" t="n">
+        <v>2972.0</v>
+      </c>
+      <c r="D116" s="6" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>253</v>
+        <v>117</v>
       </c>
       <c r="B117" s="5" t="n">
-        <v>26.0</v>
+        <v>735.0</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>132.0</v>
+        <v>1730.0</v>
       </c>
       <c r="D117" s="6" t="n">
-        <v>-50.4</v>
+        <v>-98.1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="B118" s="5" t="n">
-        <v>186.0</v>
+        <v>1905.0</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>1149.0</v>
-      </c>
-      <c r="D118" s="6" t="n">
-        <v>253.5</v>
+        <v>3455.0</v>
+      </c>
+      <c r="D118" s="5" t="n">
+        <v>-93.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="B119" s="5" t="n">
-        <v>2.0</v>
+        <v>2142.0</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>16.0</v>
+        <v>3049.0</v>
       </c>
       <c r="D119" s="6" t="n">
-        <v>-79.2</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>256</v>
+        <v>120</v>
       </c>
       <c r="B120" s="5" t="n">
-        <v>116.0</v>
+        <v>3597.0</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>158.0</v>
+        <v>3830.0</v>
       </c>
       <c r="D120" s="6" t="n">
-        <v>6.8</v>
+        <v>-58.8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="B121" s="5" t="n">
-        <v>3.0</v>
+        <v>1185.0</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>871.0</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>289</v>
+        <v>3053.0</v>
+      </c>
+      <c r="D121" s="6" t="n">
+        <v>-47.2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>258</v>
+        <v>122</v>
       </c>
       <c r="B122" s="5" t="n">
-        <v>4.0</v>
+        <v>1147.0</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="D122" s="6" t="n">
-        <v>-82.2</v>
+        <v>2123.0</v>
+      </c>
+      <c r="D122" s="5" t="n">
+        <v>-42.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="B123" s="5" t="n">
-        <v>37.0</v>
+        <v>1300.0</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="D123" s="5" t="n">
-        <v>690.0</v>
+        <v>3097.0</v>
+      </c>
+      <c r="D123" s="6" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>260</v>
+        <v>124</v>
       </c>
       <c r="B124" s="5" t="n">
-        <v>1.0</v>
+        <v>1988.0</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D124" s="5" t="n">
-        <v>-60.0</v>
+        <v>3485.0</v>
+      </c>
+      <c r="D124" s="6" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="B125" s="5" t="n">
-        <v>5.0</v>
+        <v>495659.0</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="D125" s="6" t="n">
-        <v>529.6</v>
+        <v>253208.0</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>262</v>
+        <v>126</v>
       </c>
       <c r="B126" s="5" t="n">
-        <v>17.0</v>
+        <v>504539.0</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>178.0</v>
+        <v>258435.0</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>289</v>
@@ -8399,265 +10859,2181 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B127"/>
-      <c r="C127"/>
-      <c r="D127" s="5" t="n">
-        <v>-100.0</v>
+        <v>127</v>
+      </c>
+      <c r="B127" s="5" t="n">
+        <v>505352.0</v>
+      </c>
+      <c r="C127" s="5" t="n">
+        <v>254758.0</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
       <c r="B128" s="5" t="n">
-        <v>7.0</v>
+        <v>490211.0</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>125.0</v>
+        <v>241838.0</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B129" s="5" t="n">
-        <v>0.0</v>
+        <v>592636.0</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D129" s="6" t="n">
-        <v>-99.2</v>
+        <v>287915.0</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="B130" s="5" t="n">
-        <v>4.0</v>
+        <v>532440.0</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="D130" s="6" t="n">
-        <v>-96.4</v>
+        <v>248447.0</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="B131" s="5" t="n">
-        <v>4.0</v>
+        <v>523521.0</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="D131" s="6" t="n">
-        <v>18.8</v>
+        <v>258923.0</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>268</v>
+        <v>132</v>
       </c>
       <c r="B132" s="5" t="n">
-        <v>5.0</v>
+        <v>530377.0</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="D132" s="5" t="n">
-        <v>-88.0</v>
+        <v>257462.0</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>269</v>
+        <v>133</v>
       </c>
       <c r="B133" s="5" t="n">
-        <v>17.0</v>
+        <v>333509.0</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="D133" s="6" t="n">
-        <v>-97.1</v>
+        <v>154255.0</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>270</v>
+        <v>134</v>
       </c>
       <c r="B134" s="5" t="n">
-        <v>12.0</v>
+        <v>76614.0</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="D134" s="6" t="n">
-        <v>277.8</v>
+        <v>36807.0</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="B135" s="5" t="n">
-        <v>18.0</v>
+        <v>191418.0</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>551.0</v>
-      </c>
-      <c r="D135" s="6" t="n">
-        <v>248.7</v>
+        <v>97735.0</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136" s="5" t="n">
-        <v>-100.0</v>
+        <v>136</v>
+      </c>
+      <c r="B136" s="5" t="n">
+        <v>103684.0</v>
+      </c>
+      <c r="C136" s="5" t="n">
+        <v>50002.0</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="B137" s="5" t="n">
-        <v>23.0</v>
+        <v>169117.0</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>98.0</v>
+        <v>90507.0</v>
       </c>
       <c r="D137" s="6" t="n">
-        <v>-42.4</v>
+        <v>-64.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138" s="5" t="n">
-        <v>-100.0</v>
+        <v>138</v>
+      </c>
+      <c r="B138" s="5" t="n">
+        <v>170032.0</v>
+      </c>
+      <c r="C138" s="5" t="n">
+        <v>85877.0</v>
+      </c>
+      <c r="D138" s="6" t="n">
+        <v>-66.8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="B139" s="5" t="n">
-        <v>78.0</v>
+        <v>174512.0</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>640.0</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>288</v>
+        <v>91882.0</v>
+      </c>
+      <c r="D139" s="6" t="n">
+        <v>-63.9</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>276</v>
+        <v>140</v>
       </c>
       <c r="B140" s="5" t="n">
-        <v>15.0</v>
+        <v>120181.0</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>76.0</v>
+        <v>63614.0</v>
       </c>
       <c r="D140" s="6" t="n">
-        <v>-39.2</v>
+        <v>-73.7</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="B141" s="5" t="n">
-        <v>12.0</v>
+        <v>104294.0</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>289</v>
+        <v>51705.0</v>
+      </c>
+      <c r="D141" s="5" t="n">
+        <v>-82.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>278</v>
+        <v>142</v>
       </c>
       <c r="B142" s="5" t="n">
-        <v>29.0</v>
+        <v>65101.0</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>246.0</v>
-      </c>
-      <c r="D142" s="5" t="n">
-        <v>500.0</v>
+        <v>38603.0</v>
+      </c>
+      <c r="D142" s="6" t="n">
+        <v>-84.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>279</v>
+        <v>143</v>
       </c>
       <c r="B143" s="5" t="n">
-        <v>26.0</v>
+        <v>65178.0</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>651.0</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>289</v>
+        <v>41924.0</v>
+      </c>
+      <c r="D143" s="6" t="n">
+        <v>-83.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>280</v>
+        <v>144</v>
       </c>
       <c r="B144" s="5" t="n">
-        <v>62.0</v>
+        <v>86695.0</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>201.0</v>
+        <v>50537.0</v>
       </c>
       <c r="D144" s="6" t="n">
-        <v>957.9</v>
+        <v>-80.4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145" s="5" t="n">
+        <v>93476.0</v>
+      </c>
+      <c r="C145" s="5" t="n">
+        <v>60740.0</v>
+      </c>
+      <c r="D145" s="6" t="n">
+        <v>-60.6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="5" t="n">
+        <v>114640.0</v>
+      </c>
+      <c r="C146" s="5" t="n">
+        <v>62928.0</v>
+      </c>
+      <c r="D146" s="5" t="n">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="5" t="n">
+        <v>75877.0</v>
+      </c>
+      <c r="C147" s="5" t="n">
+        <v>38081.0</v>
+      </c>
+      <c r="D147" s="5" t="n">
+        <v>-61.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="5" t="n">
+        <v>192398.0</v>
+      </c>
+      <c r="C148" s="5" t="n">
+        <v>113267.0</v>
+      </c>
+      <c r="D148" s="6" t="n">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="5" t="n">
+        <v>103065.0</v>
+      </c>
+      <c r="C149" s="5" t="n">
+        <v>51405.0</v>
+      </c>
+      <c r="D149" s="6" t="n">
+        <v>-43.2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="5" t="n">
+        <v>83530.0</v>
+      </c>
+      <c r="C150" s="5" t="n">
+        <v>56688.0</v>
+      </c>
+      <c r="D150" s="5" t="n">
+        <v>-34.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="5" t="n">
+        <v>69160.0</v>
+      </c>
+      <c r="C151" s="5" t="n">
+        <v>42298.0</v>
+      </c>
+      <c r="D151" s="5" t="n">
+        <v>-54.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="5" t="n">
+        <v>42531.0</v>
+      </c>
+      <c r="C152" s="5" t="n">
+        <v>29065.0</v>
+      </c>
+      <c r="D152" s="6" t="n">
+        <v>-54.3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="5" t="n">
+        <v>29398.0</v>
+      </c>
+      <c r="C153" s="5" t="n">
+        <v>16453.0</v>
+      </c>
+      <c r="D153" s="6" t="n">
+        <v>-68.2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154" s="5" t="n">
+        <v>17530.0</v>
+      </c>
+      <c r="C154" s="5" t="n">
+        <v>18957.0</v>
+      </c>
+      <c r="D154" s="6" t="n">
+        <v>-50.9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="5" t="n">
+        <v>16829.0</v>
+      </c>
+      <c r="C155" s="5" t="n">
+        <v>18027.0</v>
+      </c>
+      <c r="D155" s="5" t="n">
+        <v>-57.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="5" t="n">
+        <v>22593.0</v>
+      </c>
+      <c r="C156" s="5" t="n">
+        <v>22260.0</v>
+      </c>
+      <c r="D156" s="5" t="n">
+        <v>-56.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="5" t="n">
+        <v>646.0</v>
+      </c>
+      <c r="C157" s="5" t="n">
+        <v>1442.0</v>
+      </c>
+      <c r="D157" s="6" t="n">
+        <v>-97.6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="5" t="n">
+        <v>2826.0</v>
+      </c>
+      <c r="C158" s="5" t="n">
+        <v>3954.0</v>
+      </c>
+      <c r="D158" s="6" t="n">
+        <v>-93.7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159" s="5" t="n">
+        <v>17391.0</v>
+      </c>
+      <c r="C159" s="5" t="n">
+        <v>18330.0</v>
+      </c>
+      <c r="D159" s="6" t="n">
+        <v>-51.9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160" s="5" t="n">
+        <v>15584.0</v>
+      </c>
+      <c r="C160" s="5" t="n">
+        <v>16335.0</v>
+      </c>
+      <c r="D160" s="6" t="n">
+        <v>-85.6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="5" t="n">
+        <v>4061.0</v>
+      </c>
+      <c r="C161" s="5" t="n">
+        <v>4669.0</v>
+      </c>
+      <c r="D161" s="6" t="n">
+        <v>-90.9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162" s="5" t="n">
+        <v>17003.0</v>
+      </c>
+      <c r="C162" s="5" t="n">
+        <v>18683.0</v>
+      </c>
+      <c r="D162" s="5" t="n">
+        <v>-67.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="5" t="n">
+        <v>16943.0</v>
+      </c>
+      <c r="C163" s="5" t="n">
+        <v>21061.0</v>
+      </c>
+      <c r="D163" s="6" t="n">
+        <v>-50.2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="5" t="n">
+        <v>16864.0</v>
+      </c>
+      <c r="C164" s="5" t="n">
+        <v>18533.0</v>
+      </c>
+      <c r="D164" s="6" t="n">
+        <v>-36.2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165" s="5" t="n">
+        <v>1076.0</v>
+      </c>
+      <c r="C165" s="5" t="n">
+        <v>2279.0</v>
+      </c>
+      <c r="D165" s="6" t="n">
+        <v>-86.1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="5" t="n">
+        <v>1163.0</v>
+      </c>
+      <c r="C166" s="5" t="n">
+        <v>2198.0</v>
+      </c>
+      <c r="D166" s="6" t="n">
+        <v>-88.4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167" s="5" t="n">
+        <v>2493.0</v>
+      </c>
+      <c r="C167" s="5" t="n">
+        <v>3857.0</v>
+      </c>
+      <c r="D167" s="6" t="n">
+        <v>-78.6</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168" s="5" t="n">
+        <v>2405.0</v>
+      </c>
+      <c r="C168" s="5" t="n">
+        <v>7017.0</v>
+      </c>
+      <c r="D168" s="6" t="n">
+        <v>-68.5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169" s="5" t="n">
+        <v>1987.0</v>
+      </c>
+      <c r="C169" s="5" t="n">
+        <v>6718.0</v>
+      </c>
+      <c r="D169" s="6" t="n">
+        <v>365.9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170" s="5" t="n">
+        <v>1777.0</v>
+      </c>
+      <c r="C170" s="5" t="n">
+        <v>2826.0</v>
+      </c>
+      <c r="D170" s="6" t="n">
+        <v>-28.5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171" s="5" t="n">
+        <v>977.0</v>
+      </c>
+      <c r="C171" s="5" t="n">
+        <v>2142.0</v>
+      </c>
+      <c r="D171" s="6" t="n">
+        <v>-88.3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172" s="5" t="n">
+        <v>1282.0</v>
+      </c>
+      <c r="C172" s="5" t="n">
+        <v>2160.0</v>
+      </c>
+      <c r="D172" s="6" t="n">
+        <v>-86.8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173" s="5" t="n">
+        <v>1540.0</v>
+      </c>
+      <c r="C173" s="5" t="n">
+        <v>2498.0</v>
+      </c>
+      <c r="D173" s="6" t="n">
+        <v>-46.5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174" s="5" t="n">
+        <v>4806.0</v>
+      </c>
+      <c r="C174" s="5" t="n">
+        <v>4171.0</v>
+      </c>
+      <c r="D174" s="6" t="n">
+        <v>-77.7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175" s="5" t="n">
+        <v>5070.0</v>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v>11395.0</v>
+      </c>
+      <c r="D175" s="6" t="n">
+        <v>-45.9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176" s="5" t="n">
+        <v>2720.0</v>
+      </c>
+      <c r="C176" s="5" t="n">
+        <v>2850.0</v>
+      </c>
+      <c r="D176" s="6" t="n">
+        <v>-84.6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177" s="5" t="n">
+        <v>816.0</v>
+      </c>
+      <c r="C177" s="5" t="n">
+        <v>1906.0</v>
+      </c>
+      <c r="D177" s="6" t="n">
+        <v>-16.4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178" s="5" t="n">
+        <v>2614.0</v>
+      </c>
+      <c r="C178" s="5" t="n">
+        <v>3338.0</v>
+      </c>
+      <c r="D178" s="6" t="n">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179" s="5" t="n">
+        <v>3219.0</v>
+      </c>
+      <c r="C179" s="5" t="n">
+        <v>4877.0</v>
+      </c>
+      <c r="D179" s="6" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180" s="5" t="n">
+        <v>4240.0</v>
+      </c>
+      <c r="C180" s="5" t="n">
+        <v>4601.0</v>
+      </c>
+      <c r="D180" s="6" t="n">
+        <v>-34.4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181" s="5" t="n">
+        <v>2463.0</v>
+      </c>
+      <c r="C181" s="5" t="n">
+        <v>6372.0</v>
+      </c>
+      <c r="D181" s="6" t="n">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182" s="5" t="n">
+        <v>4658.0</v>
+      </c>
+      <c r="C182" s="5" t="n">
+        <v>5693.0</v>
+      </c>
+      <c r="D182" s="6" t="n">
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="5" t="n">
+        <v>1608.0</v>
+      </c>
+      <c r="C183" s="5" t="n">
+        <v>2620.0</v>
+      </c>
+      <c r="D183" s="6" t="n">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184" s="5" t="n">
+        <v>37727.0</v>
+      </c>
+      <c r="C184" s="5" t="n">
+        <v>31238.0</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185" s="5" t="n">
+        <v>2439.0</v>
+      </c>
+      <c r="C185" s="5" t="n">
+        <v>4359.0</v>
+      </c>
+      <c r="D185" s="6" t="n">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186" s="5" t="n">
+        <v>25972.0</v>
+      </c>
+      <c r="C186" s="5" t="n">
+        <v>16194.0</v>
+      </c>
+      <c r="D186" s="6" t="n">
+        <v>288.3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187" s="5" t="n">
+        <v>5770.0</v>
+      </c>
+      <c r="C187" s="5" t="n">
+        <v>6170.0</v>
+      </c>
+      <c r="D187" s="6" t="n">
+        <v>-45.9</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188" s="5" t="n">
+        <v>6255.0</v>
+      </c>
+      <c r="C188" s="5" t="n">
+        <v>25018.0</v>
+      </c>
+      <c r="D188" s="6" t="n">
+        <v>777.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189" s="5" t="n">
+        <v>1731.0</v>
+      </c>
+      <c r="C189" s="5" t="n">
+        <v>2873.0</v>
+      </c>
+      <c r="D189" s="6" t="n">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190" s="5" t="n">
+        <v>380465.0</v>
+      </c>
+      <c r="C190" s="5" t="n">
+        <v>221465.0</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191" s="5" t="n">
+        <v>471507.0</v>
+      </c>
+      <c r="C191" s="5" t="n">
+        <v>285105.0</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="5" t="n">
+        <v>404771.0</v>
+      </c>
+      <c r="C192" s="5" t="n">
+        <v>242722.0</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="5" t="n">
+        <v>251991.0</v>
+      </c>
+      <c r="C193" s="5" t="n">
+        <v>151495.0</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="5" t="n">
+        <v>28040.0</v>
+      </c>
+      <c r="C194" s="5" t="n">
+        <v>21676.0</v>
+      </c>
+      <c r="D194" s="6" t="n">
+        <v>280.7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="5" t="n">
+        <v>7256.0</v>
+      </c>
+      <c r="C195" s="5" t="n">
+        <v>7547.0</v>
+      </c>
+      <c r="D195" s="6" t="n">
+        <v>188.1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" s="5" t="n">
+        <v>3352.0</v>
+      </c>
+      <c r="C196" s="5" t="n">
+        <v>8031.0</v>
+      </c>
+      <c r="D196" s="6" t="n">
+        <v>-74.3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="5" t="n">
+        <v>5964.0</v>
+      </c>
+      <c r="C197" s="5" t="n">
+        <v>10464.0</v>
+      </c>
+      <c r="D197" s="6" t="n">
+        <v>140.1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" s="5" t="n">
+        <v>3315.0</v>
+      </c>
+      <c r="C198" s="5" t="n">
+        <v>5619.0</v>
+      </c>
+      <c r="D198" s="6" t="n">
+        <v>-65.3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="5" t="n">
+        <v>7538.0</v>
+      </c>
+      <c r="C199" s="5" t="n">
+        <v>16273.0</v>
+      </c>
+      <c r="D199" s="6" t="n">
+        <v>163.7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="5" t="n">
+        <v>100932.0</v>
+      </c>
+      <c r="C200" s="5" t="n">
+        <v>60445.0</v>
+      </c>
+      <c r="D200" s="6" t="n">
+        <v>141.6</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="5" t="n">
+        <v>228814.0</v>
+      </c>
+      <c r="C201" s="5" t="n">
+        <v>132434.0</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="5" t="n">
+        <v>456299.0</v>
+      </c>
+      <c r="C202" s="5" t="n">
+        <v>262466.0</v>
+      </c>
+      <c r="D202" s="6" t="n">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="5" t="n">
+        <v>399873.0</v>
+      </c>
+      <c r="C203" s="5" t="n">
+        <v>229474.0</v>
+      </c>
+      <c r="D203" s="6" t="n">
+        <v>-19.5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="5" t="n">
+        <v>455169.0</v>
+      </c>
+      <c r="C204" s="5" t="n">
+        <v>272733.0</v>
+      </c>
+      <c r="D204" s="6" t="n">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="5" t="n">
+        <v>322963.0</v>
+      </c>
+      <c r="C205" s="5" t="n">
+        <v>196667.0</v>
+      </c>
+      <c r="D205" s="6" t="n">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" s="5" t="n">
+        <v>128917.0</v>
+      </c>
+      <c r="C206" s="5" t="n">
+        <v>86000.0</v>
+      </c>
+      <c r="D206" s="6" t="n">
+        <v>296.8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="5" t="n">
+        <v>6249.0</v>
+      </c>
+      <c r="C207" s="5" t="n">
+        <v>9047.0</v>
+      </c>
+      <c r="D207" s="6" t="n">
+        <v>19.9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="5" t="n">
+        <v>3555.0</v>
+      </c>
+      <c r="C208" s="5" t="n">
+        <v>6719.0</v>
+      </c>
+      <c r="D208" s="6" t="n">
+        <v>-16.3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="5" t="n">
+        <v>23241.0</v>
+      </c>
+      <c r="C209" s="5" t="n">
+        <v>15775.0</v>
+      </c>
+      <c r="D209" s="6" t="n">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" s="5" t="n">
+        <v>22170.0</v>
+      </c>
+      <c r="C210" s="5" t="n">
+        <v>15124.0</v>
+      </c>
+      <c r="D210" s="6" t="n">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="5" t="n">
+        <v>26299.0</v>
+      </c>
+      <c r="C211" s="5" t="n">
+        <v>23082.0</v>
+      </c>
+      <c r="D211" s="6" t="n">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" s="5" t="n">
+        <v>4137.0</v>
+      </c>
+      <c r="C212" s="5" t="n">
+        <v>6049.0</v>
+      </c>
+      <c r="D212" s="5" t="n">
+        <v>-90.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="5" t="n">
+        <v>20440.0</v>
+      </c>
+      <c r="C213" s="5" t="n">
+        <v>13760.0</v>
+      </c>
+      <c r="D213" s="6" t="n">
+        <v>-89.6</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" s="5" t="n">
+        <v>81969.0</v>
+      </c>
+      <c r="C214" s="5" t="n">
+        <v>55268.0</v>
+      </c>
+      <c r="D214" s="6" t="n">
+        <v>-78.9</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="5" t="n">
+        <v>253064.0</v>
+      </c>
+      <c r="C215" s="5" t="n">
+        <v>190635.0</v>
+      </c>
+      <c r="D215" s="6" t="n">
+        <v>-16.9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" s="5" t="n">
+        <v>20489.0</v>
+      </c>
+      <c r="C216" s="5" t="n">
+        <v>23668.0</v>
+      </c>
+      <c r="D216" s="6" t="n">
+        <v>-91.3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" s="5" t="n">
+        <v>20129.0</v>
+      </c>
+      <c r="C217" s="5" t="n">
+        <v>14060.0</v>
+      </c>
+      <c r="D217" s="6" t="n">
+        <v>-92.9</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" s="5" t="n">
+        <v>17802.0</v>
+      </c>
+      <c r="C218" s="5" t="n">
+        <v>13673.0</v>
+      </c>
+      <c r="D218" s="6" t="n">
+        <v>-84.1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" s="5" t="n">
+        <v>6700.0</v>
+      </c>
+      <c r="C219" s="5" t="n">
+        <v>9507.0</v>
+      </c>
+      <c r="D219" s="6" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="5" t="n">
+        <v>21011.0</v>
+      </c>
+      <c r="C220" s="5" t="n">
+        <v>14257.0</v>
+      </c>
+      <c r="D220" s="6" t="n">
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" s="5" t="n">
+        <v>4694.0</v>
+      </c>
+      <c r="C221" s="5" t="n">
+        <v>7620.0</v>
+      </c>
+      <c r="D221" s="6" t="n">
+        <v>-51.7</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="5" t="n">
+        <v>7637.0</v>
+      </c>
+      <c r="C222" s="5" t="n">
+        <v>10904.0</v>
+      </c>
+      <c r="D222" s="6" t="n">
+        <v>-27.9</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="5" t="n">
+        <v>22545.0</v>
+      </c>
+      <c r="C223" s="5" t="n">
+        <v>16635.0</v>
+      </c>
+      <c r="D223" s="6" t="n">
+        <v>-27.9</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="5" t="n">
+        <v>9046.0</v>
+      </c>
+      <c r="C224" s="5" t="n">
+        <v>15147.0</v>
+      </c>
+      <c r="D224" s="6" t="n">
+        <v>150.4</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" s="5" t="n">
+        <v>56484.0</v>
+      </c>
+      <c r="C225" s="5" t="n">
+        <v>37491.0</v>
+      </c>
+      <c r="D225" s="6" t="n">
+        <v>172.5</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" s="5" t="n">
+        <v>97817.0</v>
+      </c>
+      <c r="C226" s="5" t="n">
+        <v>56939.0</v>
+      </c>
+      <c r="D226" s="5" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="5" t="n">
+        <v>118296.0</v>
+      </c>
+      <c r="C227" s="5" t="n">
+        <v>77429.0</v>
+      </c>
+      <c r="D227" s="6" t="n">
+        <v>-59.4</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" s="5" t="n">
+        <v>83655.0</v>
+      </c>
+      <c r="C228" s="5" t="n">
+        <v>43591.0</v>
+      </c>
+      <c r="D228" s="6" t="n">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" s="5" t="n">
+        <v>98801.0</v>
+      </c>
+      <c r="C229" s="5" t="n">
+        <v>47156.0</v>
+      </c>
+      <c r="D229" s="6" t="n">
+        <v>235.4</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="5" t="n">
+        <v>130739.0</v>
+      </c>
+      <c r="C230" s="5" t="n">
+        <v>61992.0</v>
+      </c>
+      <c r="D230" s="6" t="n">
+        <v>353.4</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="5" t="n">
+        <v>122997.0</v>
+      </c>
+      <c r="C231" s="5" t="n">
+        <v>58844.0</v>
+      </c>
+      <c r="D231" s="5" t="n">
+        <v>519.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="5" t="n">
+        <v>81360.0</v>
+      </c>
+      <c r="C232" s="5" t="n">
+        <v>40903.0</v>
+      </c>
+      <c r="D232" s="6" t="n">
+        <v>186.9</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" s="5" t="n">
+        <v>94115.0</v>
+      </c>
+      <c r="C233" s="5" t="n">
+        <v>45782.0</v>
+      </c>
+      <c r="D233" s="6" t="n">
+        <v>500.8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" s="5" t="n">
+        <v>105149.0</v>
+      </c>
+      <c r="C234" s="5" t="n">
+        <v>48768.0</v>
+      </c>
+      <c r="D234" s="6" t="n">
+        <v>347.2</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="5" t="n">
+        <v>149725.0</v>
+      </c>
+      <c r="C235" s="5" t="n">
+        <v>78869.0</v>
+      </c>
+      <c r="D235" s="6" t="n">
+        <v>374.1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="5" t="n">
+        <v>53092.0</v>
+      </c>
+      <c r="C236" s="5" t="n">
+        <v>25580.0</v>
+      </c>
+      <c r="D236" s="6" t="n">
+        <v>68.9</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="5" t="n">
+        <v>98063.0</v>
+      </c>
+      <c r="C237" s="5" t="n">
+        <v>50356.0</v>
+      </c>
+      <c r="D237" s="6" t="n">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" s="5" t="n">
+        <v>133008.0</v>
+      </c>
+      <c r="C238" s="5" t="n">
+        <v>65818.0</v>
+      </c>
+      <c r="D238" s="6" t="n">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" s="5" t="n">
+        <v>111370.0</v>
+      </c>
+      <c r="C239" s="5" t="n">
+        <v>68595.0</v>
+      </c>
+      <c r="D239" s="6" t="n">
+        <v>-11.4</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" s="5" t="n">
+        <v>124533.0</v>
+      </c>
+      <c r="C240" s="5" t="n">
+        <v>62443.0</v>
+      </c>
+      <c r="D240" s="6" t="n">
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" s="5" t="n">
+        <v>126598.0</v>
+      </c>
+      <c r="C241" s="5" t="n">
+        <v>69634.0</v>
+      </c>
+      <c r="D241" s="6" t="n">
+        <v>47.7</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="5" t="n">
+        <v>5454.0</v>
+      </c>
+      <c r="C242" s="5" t="n">
+        <v>6590.0</v>
+      </c>
+      <c r="D242" s="6" t="n">
+        <v>-89.4</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" s="5" t="n">
+        <v>29068.0</v>
+      </c>
+      <c r="C243" s="5" t="n">
+        <v>20831.0</v>
+      </c>
+      <c r="D243" s="6" t="n">
+        <v>-64.6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" s="5" t="n">
+        <v>9316.0</v>
+      </c>
+      <c r="C244" s="5" t="n">
+        <v>11970.0</v>
+      </c>
+      <c r="D244" s="6" t="n">
+        <v>-70.7</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" s="5" t="n">
+        <v>25544.0</v>
+      </c>
+      <c r="C245" s="5" t="n">
+        <v>17907.0</v>
+      </c>
+      <c r="D245" s="6" t="n">
+        <v>-60.9</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" s="5" t="n">
+        <v>5120.0</v>
+      </c>
+      <c r="C246" s="5" t="n">
+        <v>11431.0</v>
+      </c>
+      <c r="D246" s="6" t="n">
+        <v>-76.6</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" s="5" t="n">
+        <v>27664.0</v>
+      </c>
+      <c r="C247" s="5" t="n">
+        <v>22030.0</v>
+      </c>
+      <c r="D247" s="6" t="n">
+        <v>-72.1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248" s="5" t="n">
+        <v>79793.0</v>
+      </c>
+      <c r="C248" s="5" t="n">
+        <v>55173.0</v>
+      </c>
+      <c r="D248" s="6" t="n">
+        <v>115.7</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249" s="5" t="n">
+        <v>108578.0</v>
+      </c>
+      <c r="C249" s="5" t="n">
+        <v>79395.0</v>
+      </c>
+      <c r="D249" s="6" t="n">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250" s="5" t="n">
+        <v>523158.0</v>
+      </c>
+      <c r="C250" s="5" t="n">
+        <v>251031.0</v>
+      </c>
+      <c r="D250" s="6" t="n">
+        <v>281.4</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251" s="5" t="n">
+        <v>406320.0</v>
+      </c>
+      <c r="C251" s="5" t="n">
+        <v>197160.0</v>
+      </c>
+      <c r="D251" s="6" t="n">
+        <v>187.4</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252" s="5" t="n">
+        <v>432010.0</v>
+      </c>
+      <c r="C252" s="5" t="n">
+        <v>218794.0</v>
+      </c>
+      <c r="D252" s="6" t="n">
+        <v>250.4</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253" s="5" t="n">
+        <v>477800.0</v>
+      </c>
+      <c r="C253" s="5" t="n">
+        <v>244570.0</v>
+      </c>
+      <c r="D253" s="6" t="n">
+        <v>251.2</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254" s="5" t="n">
+        <v>243620.0</v>
+      </c>
+      <c r="C254" s="5" t="n">
+        <v>130583.0</v>
+      </c>
+      <c r="D254" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255" s="5" t="n">
+        <v>271859.0</v>
+      </c>
+      <c r="C255" s="5" t="n">
+        <v>166750.0</v>
+      </c>
+      <c r="D255" s="6" t="n">
+        <v>700.5</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256" s="5" t="n">
+        <v>267647.0</v>
+      </c>
+      <c r="C256" s="5" t="n">
+        <v>156440.0</v>
+      </c>
+      <c r="D256" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257" s="5" t="n">
+        <v>305888.0</v>
+      </c>
+      <c r="C257" s="5" t="n">
+        <v>180588.0</v>
+      </c>
+      <c r="D257" s="6" t="n">
+        <v>908.5</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258" s="5" t="n">
+        <v>107226.0</v>
+      </c>
+      <c r="C258" s="5" t="n">
+        <v>74058.0</v>
+      </c>
+      <c r="D258" s="6" t="n">
+        <v>547.9</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259" s="5" t="n">
+        <v>171573.0</v>
+      </c>
+      <c r="C259" s="5" t="n">
+        <v>108288.0</v>
+      </c>
+      <c r="D259" s="6" t="n">
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260" s="5" t="n">
+        <v>79593.0</v>
+      </c>
+      <c r="C260" s="5" t="n">
+        <v>55251.0</v>
+      </c>
+      <c r="D260" s="6" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261" s="5" t="n">
+        <v>172877.0</v>
+      </c>
+      <c r="C261" s="5" t="n">
+        <v>111252.0</v>
+      </c>
+      <c r="D261" s="6" t="n">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262" s="5" t="n">
+        <v>232152.0</v>
+      </c>
+      <c r="C262" s="5" t="n">
+        <v>137951.0</v>
+      </c>
+      <c r="D262" s="5" t="n">
+        <v>-45.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263" s="5" t="n">
+        <v>395664.0</v>
+      </c>
+      <c r="C263" s="5" t="n">
+        <v>236766.0</v>
+      </c>
+      <c r="D263" s="6" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264" s="5" t="n">
+        <v>517163.0</v>
+      </c>
+      <c r="C264" s="5" t="n">
+        <v>298857.0</v>
+      </c>
+      <c r="D264" s="6" t="n">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265" s="5" t="n">
+        <v>353024.0</v>
+      </c>
+      <c r="C265" s="5" t="n">
+        <v>230875.0</v>
+      </c>
+      <c r="D265" s="6" t="n">
+        <v>-5.6</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266" s="5" t="n">
+        <v>374029.0</v>
+      </c>
+      <c r="C266" s="5" t="n">
+        <v>267372.0</v>
+      </c>
+      <c r="D266" s="6" t="n">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" s="5" t="n">
+        <v>228768.0</v>
+      </c>
+      <c r="C267" s="5" t="n">
+        <v>185540.0</v>
+      </c>
+      <c r="D267" s="6" t="n">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" s="5" t="n">
+        <v>198405.0</v>
+      </c>
+      <c r="C268" s="5" t="n">
+        <v>151531.0</v>
+      </c>
+      <c r="D268" s="6" t="n">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269" s="5" t="n">
+        <v>156919.0</v>
+      </c>
+      <c r="C269" s="5" t="n">
+        <v>118541.0</v>
+      </c>
+      <c r="D269" s="6" t="n">
+        <v>-34.4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270" s="5" t="n">
+        <v>226399.0</v>
+      </c>
+      <c r="C270" s="5" t="n">
+        <v>168517.0</v>
+      </c>
+      <c r="D270" s="6" t="n">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271" s="5" t="n">
+        <v>330735.0</v>
+      </c>
+      <c r="C271" s="5" t="n">
+        <v>241681.0</v>
+      </c>
+      <c r="D271" s="6" t="n">
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272" s="5" t="n">
+        <v>301734.0</v>
+      </c>
+      <c r="C272" s="5" t="n">
+        <v>214389.0</v>
+      </c>
+      <c r="D272" s="5" t="n">
+        <v>288.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273" s="5" t="n">
+        <v>382706.0</v>
+      </c>
+      <c r="C273" s="5" t="n">
+        <v>268349.0</v>
+      </c>
+      <c r="D273" s="6" t="n">
+        <v>141.2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274" s="5" t="n">
+        <v>334248.0</v>
+      </c>
+      <c r="C274" s="5" t="n">
+        <v>229573.0</v>
+      </c>
+      <c r="D274" s="6" t="n">
+        <v>66.4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275" s="5" t="n">
+        <v>686465.0</v>
+      </c>
+      <c r="C275" s="5" t="n">
+        <v>431943.0</v>
+      </c>
+      <c r="D275" s="6" t="n">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276" s="5" t="n">
+        <v>527755.0</v>
+      </c>
+      <c r="C276" s="5" t="n">
+        <v>331817.0</v>
+      </c>
+      <c r="D276" s="5" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277" s="5" t="n">
+        <v>577706.0</v>
+      </c>
+      <c r="C277" s="5" t="n">
+        <v>361282.0</v>
+      </c>
+      <c r="D277" s="6" t="n">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278" s="5" t="n">
+        <v>744705.0</v>
+      </c>
+      <c r="C278" s="5" t="n">
+        <v>466973.0</v>
+      </c>
+      <c r="D278" s="6" t="n">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279" s="5" t="n">
+        <v>641031.0</v>
+      </c>
+      <c r="C279" s="5" t="n">
+        <v>410211.0</v>
+      </c>
+      <c r="D279" s="6" t="n">
+        <v>121.1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280" s="5" t="n">
+        <v>475328.0</v>
+      </c>
+      <c r="C280" s="5" t="n">
+        <v>301971.0</v>
+      </c>
+      <c r="D280" s="6" t="n">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B145" s="5" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C145" s="5" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="D145" s="5" t="n">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="7" t="s">
+      <c r="B281" s="5" t="n">
+        <v>501550.0</v>
+      </c>
+      <c r="C281" s="5" t="n">
+        <v>315995.0</v>
+      </c>
+      <c r="D281" s="6" t="n">
+        <v>166.6</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="7" t="s">
+    <row r="293">
+      <c r="A293" s="7" t="s">
         <v>285</v>
       </c>
     </row>
